--- a/s60_signal/position-00386-600028.xlsx
+++ b/s60_signal/position-00386-600028.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="646">
   <si>
     <t>trade_time</t>
   </si>
@@ -1003,9 +1003,6 @@
     <t>2021-03-16</t>
   </si>
   <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
     <t>2021-04-19</t>
   </si>
   <si>
@@ -1024,6 +1021,9 @@
     <t>2021-04-13</t>
   </si>
   <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
     <t>2021-07-09</t>
   </si>
   <si>
@@ -1039,10 +1039,10 @@
     <t>2021-05-20</t>
   </si>
   <si>
-    <t>2021-06-04</t>
+    <t>2021-05-06</t>
   </si>
   <si>
-    <t>2021-05-06</t>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2021-06-09</t>
@@ -1525,19 +1525,19 @@
     <t>2021-04-28</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
   </si>
   <si>
     <t>2021-06-29</t>
   </si>
   <si>
     <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>2021-06-16</t>
   </si>
   <si>
     <t>2015-12-31</t>
@@ -1898,6 +1898,9 @@
   </si>
   <si>
     <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
   </si>
   <si>
     <t>2021-04-12</t>
@@ -2306,7 +2309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1611"/>
+  <dimension ref="A1:P1614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -75170,10 +75173,10 @@
         <v>2.248752447474759</v>
       </c>
       <c r="D1458" t="s">
-        <v>317</v>
+        <v>501</v>
       </c>
       <c r="E1458">
-        <v>2.421480982600361</v>
+        <v>2.362389568550121</v>
       </c>
       <c r="F1458">
         <v>1</v>
@@ -75182,10 +75185,10 @@
         <v>0.006331247552525241</v>
       </c>
       <c r="H1458">
-        <v>0.006358519017399638</v>
+        <v>0.00635761043144988</v>
       </c>
       <c r="I1458">
-        <v>0.1727285351256023</v>
+        <v>0.1136371210753619</v>
       </c>
       <c r="J1458">
         <v>0.4848569008373494</v>
@@ -75197,10 +75200,10 @@
         <v>4.29</v>
       </c>
       <c r="M1458">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
       <c r="N1458">
-        <v>4.39</v>
+        <v>4.36</v>
       </c>
       <c r="O1458">
         <v>1</v>
@@ -75517,40 +75520,40 @@
         <v>329</v>
       </c>
       <c r="C1465">
-        <v>0.9663823482300185</v>
+        <v>1.006439478883017</v>
       </c>
       <c r="D1465" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="E1465">
-        <v>1.144319504511721</v>
+        <v>1.130222382401624</v>
       </c>
       <c r="F1465">
         <v>1</v>
       </c>
       <c r="G1465">
-        <v>0.007633617651769981</v>
+        <v>0.007833560521116983</v>
       </c>
       <c r="H1465">
-        <v>0.007635680495488279</v>
+        <v>0.007349777617598377</v>
       </c>
       <c r="I1465">
-        <v>0.1779371562817023</v>
+        <v>0.1237829035186073</v>
       </c>
       <c r="J1465">
         <v>0.7994286934700195</v>
       </c>
       <c r="K1465">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="L1465">
-        <v>4.3</v>
+        <v>4.42</v>
       </c>
       <c r="M1465">
-        <v>4.06</v>
+        <v>3.89</v>
       </c>
       <c r="N1465">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="O1465">
         <v>1</v>
@@ -75567,40 +75570,40 @@
         <v>330</v>
       </c>
       <c r="C1466">
-        <v>1.006439478883017</v>
+        <v>1.218245234662823</v>
       </c>
       <c r="D1466" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E1466">
-        <v>1.130222382401624</v>
+        <v>1.160136686422127</v>
       </c>
       <c r="F1466">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1466">
-        <v>0.007833560521116983</v>
+        <v>0.007501754765337177</v>
       </c>
       <c r="H1466">
-        <v>0.007349777617598377</v>
+        <v>0.007139863313577874</v>
       </c>
       <c r="I1466">
-        <v>0.1237829035186073</v>
+        <v>0.05810854824069622</v>
       </c>
       <c r="J1466">
         <v>0.7994286934700195</v>
       </c>
       <c r="K1466">
-        <v>4.27</v>
+        <v>3.93</v>
       </c>
       <c r="L1466">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="M1466">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="N1466">
-        <v>4.24</v>
+        <v>4.15</v>
       </c>
       <c r="O1466">
         <v>1</v>
@@ -75617,40 +75620,40 @@
         <v>331</v>
       </c>
       <c r="C1467">
-        <v>1.218245234662823</v>
+        <v>1.218216669336325</v>
       </c>
       <c r="D1467" t="s">
         <v>503</v>
       </c>
       <c r="E1467">
-        <v>1.164148112552727</v>
+        <v>1.160136686422127</v>
       </c>
       <c r="F1467">
         <v>-1</v>
       </c>
       <c r="G1467">
-        <v>0.007501754765337177</v>
+        <v>0.007421783330663676</v>
       </c>
       <c r="H1467">
-        <v>0.007175851887447273</v>
+        <v>0.007139863313577874</v>
       </c>
       <c r="I1467">
-        <v>0.05409712211009676</v>
+        <v>0.05807998291419736</v>
       </c>
       <c r="J1467">
         <v>0.7994286934700195</v>
       </c>
       <c r="K1467">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1467">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1467">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1467">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1467">
         <v>1</v>
@@ -75667,40 +75670,40 @@
         <v>332</v>
       </c>
       <c r="C1468">
-        <v>1.218216669336325</v>
+        <v>1.218130973356827</v>
       </c>
       <c r="D1468" t="s">
         <v>503</v>
       </c>
       <c r="E1468">
-        <v>1.164148112552727</v>
+        <v>1.160136686422127</v>
       </c>
       <c r="F1468">
         <v>-1</v>
       </c>
       <c r="G1468">
-        <v>0.007421783330663676</v>
+        <v>0.007181869026643174</v>
       </c>
       <c r="H1468">
-        <v>0.007175851887447273</v>
+        <v>0.007139863313577874</v>
       </c>
       <c r="I1468">
-        <v>0.0540685567835979</v>
+        <v>0.05799428693469988</v>
       </c>
       <c r="J1468">
         <v>0.7994286934700195</v>
       </c>
       <c r="K1468">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1468">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1468">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1468">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1468">
         <v>1</v>
@@ -75711,63 +75714,63 @@
     </row>
     <row r="1469" spans="1:16">
       <c r="A1469" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1469" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1469">
-        <v>1.218130973356827</v>
+        <v>0.8789148230953123</v>
       </c>
       <c r="D1469" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1469">
-        <v>1.164148112552727</v>
+        <v>1.055636282274489</v>
       </c>
       <c r="F1469">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1469">
-        <v>0.007181869026643174</v>
+        <v>0.008221085176904687</v>
       </c>
       <c r="H1469">
-        <v>0.007175851887447273</v>
+        <v>0.00772436371772551</v>
       </c>
       <c r="I1469">
-        <v>0.05398286080410042</v>
+        <v>0.176721459179177</v>
       </c>
       <c r="J1469">
-        <v>0.7994286934700195</v>
+        <v>0.8212718516565297</v>
       </c>
       <c r="K1469">
-        <v>3.73</v>
+        <v>4.47</v>
       </c>
       <c r="L1469">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="M1469">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1469">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1469">
         <v>1</v>
       </c>
       <c r="P1469" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1470" spans="1:16">
       <c r="A1470" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1470" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1470">
-        <v>0.8789148230953123</v>
+        <v>0.8324455045260097</v>
       </c>
       <c r="D1470" t="s">
         <v>317</v>
@@ -75779,22 +75782,22 @@
         <v>1</v>
       </c>
       <c r="G1470">
-        <v>0.008221085176904687</v>
+        <v>0.00774755449547399</v>
       </c>
       <c r="H1470">
         <v>0.00772436371772551</v>
       </c>
       <c r="I1470">
-        <v>0.176721459179177</v>
+        <v>0.2231907777484796</v>
       </c>
       <c r="J1470">
         <v>0.8212718516565297</v>
       </c>
       <c r="K1470">
-        <v>4.47</v>
+        <v>4.21</v>
       </c>
       <c r="L1470">
-        <v>4.55</v>
+        <v>4.29</v>
       </c>
       <c r="M1470">
         <v>4.06</v>
@@ -75811,46 +75814,46 @@
     </row>
     <row r="1471" spans="1:16">
       <c r="A1471" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1471" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C1471">
-        <v>0.8324455045260097</v>
+        <v>0.9131691934266182</v>
       </c>
       <c r="D1471" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="E1471">
-        <v>1.055636282274489</v>
+        <v>1.045252497056099</v>
       </c>
       <c r="F1471">
         <v>1</v>
       </c>
       <c r="G1471">
-        <v>0.00774755449547399</v>
+        <v>0.007926830806573382</v>
       </c>
       <c r="H1471">
-        <v>0.00772436371772551</v>
+        <v>0.007434747502943901</v>
       </c>
       <c r="I1471">
-        <v>0.2231907777484796</v>
+        <v>0.1320833036294813</v>
       </c>
       <c r="J1471">
         <v>0.8212718516565297</v>
       </c>
       <c r="K1471">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="L1471">
-        <v>4.29</v>
+        <v>4.42</v>
       </c>
       <c r="M1471">
-        <v>4.06</v>
+        <v>3.89</v>
       </c>
       <c r="N1471">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="O1471">
         <v>1</v>
@@ -75861,46 +75864,46 @@
     </row>
     <row r="1472" spans="1:16">
       <c r="A1472" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1472" t="s">
         <v>330</v>
       </c>
       <c r="C1472">
-        <v>0.9131691934266182</v>
+        <v>1.132401622989839</v>
       </c>
       <c r="D1472" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E1472">
-        <v>1.045252497056099</v>
+        <v>1.078443274804579</v>
       </c>
       <c r="F1472">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1472">
-        <v>0.007926830806573382</v>
+        <v>0.007587598377010162</v>
       </c>
       <c r="H1472">
-        <v>0.007434747502943901</v>
+        <v>0.007221556725195422</v>
       </c>
       <c r="I1472">
-        <v>0.1320833036294813</v>
+        <v>0.05395834818525946</v>
       </c>
       <c r="J1472">
         <v>0.8212718516565297</v>
       </c>
       <c r="K1472">
-        <v>4.27</v>
+        <v>3.93</v>
       </c>
       <c r="L1472">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="M1472">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="N1472">
-        <v>4.24</v>
+        <v>4.15</v>
       </c>
       <c r="O1472">
         <v>1</v>
@@ -75911,46 +75914,46 @@
     </row>
     <row r="1473" spans="1:16">
       <c r="A1473" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1473" t="s">
         <v>331</v>
       </c>
       <c r="C1473">
-        <v>1.132401622989839</v>
+        <v>1.133465215572665</v>
       </c>
       <c r="D1473" t="s">
         <v>503</v>
       </c>
       <c r="E1473">
-        <v>1.082017837771448</v>
+        <v>1.078443274804579</v>
       </c>
       <c r="F1473">
         <v>-1</v>
       </c>
       <c r="G1473">
-        <v>0.007587598377010162</v>
+        <v>0.007506534784427336</v>
       </c>
       <c r="H1473">
-        <v>0.007257982162228551</v>
+        <v>0.007221556725195422</v>
       </c>
       <c r="I1473">
-        <v>0.05038378521839038</v>
+        <v>0.05502194076808609</v>
       </c>
       <c r="J1473">
         <v>0.8212718516565297</v>
       </c>
       <c r="K1473">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1473">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1473">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1473">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1473">
         <v>1</v>
@@ -75961,46 +75964,46 @@
     </row>
     <row r="1474" spans="1:16">
       <c r="A1474" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1474" t="s">
         <v>332</v>
       </c>
       <c r="C1474">
-        <v>1.133465215572665</v>
+        <v>1.136655993321144</v>
       </c>
       <c r="D1474" t="s">
         <v>503</v>
       </c>
       <c r="E1474">
-        <v>1.082017837771448</v>
+        <v>1.078443274804579</v>
       </c>
       <c r="F1474">
         <v>-1</v>
       </c>
       <c r="G1474">
-        <v>0.007506534784427336</v>
+        <v>0.007263344006678857</v>
       </c>
       <c r="H1474">
-        <v>0.007257982162228551</v>
+        <v>0.007221556725195422</v>
       </c>
       <c r="I1474">
-        <v>0.051447377801217</v>
+        <v>0.05821271851656507</v>
       </c>
       <c r="J1474">
         <v>0.8212718516565297</v>
       </c>
       <c r="K1474">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1474">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1474">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1474">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1474">
         <v>1</v>
@@ -76011,63 +76014,63 @@
     </row>
     <row r="1475" spans="1:16">
       <c r="A1475" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1475" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1475">
-        <v>1.136655993321144</v>
+        <v>0.8134064173297499</v>
       </c>
       <c r="D1475" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1475">
-        <v>1.082017837771448</v>
+        <v>0.9961364774851869</v>
       </c>
       <c r="F1475">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1475">
-        <v>0.007263344006678857</v>
+        <v>0.008286593582670251</v>
       </c>
       <c r="H1475">
-        <v>0.007257982162228551</v>
+        <v>0.007783863522514812</v>
       </c>
       <c r="I1475">
-        <v>0.05463815554969598</v>
+        <v>0.1827300601554369</v>
       </c>
       <c r="J1475">
-        <v>0.8212718516565297</v>
+        <v>0.8359269759888702</v>
       </c>
       <c r="K1475">
-        <v>3.73</v>
+        <v>4.47</v>
       </c>
       <c r="L1475">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="M1475">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1475">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1475">
         <v>1</v>
       </c>
       <c r="P1475" t="s">
-        <v>321</v>
+        <v>617</v>
       </c>
     </row>
     <row r="1476" spans="1:16">
       <c r="A1476" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1476" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1476">
-        <v>0.8134064173297499</v>
+        <v>0.7707474310868565</v>
       </c>
       <c r="D1476" t="s">
         <v>317</v>
@@ -76079,22 +76082,22 @@
         <v>1</v>
       </c>
       <c r="G1476">
-        <v>0.008286593582670251</v>
+        <v>0.007809252568913143</v>
       </c>
       <c r="H1476">
         <v>0.007783863522514812</v>
       </c>
       <c r="I1476">
-        <v>0.1827300601554369</v>
+        <v>0.2253890463983304</v>
       </c>
       <c r="J1476">
         <v>0.8359269759888702</v>
       </c>
       <c r="K1476">
-        <v>4.47</v>
+        <v>4.21</v>
       </c>
       <c r="L1476">
-        <v>4.55</v>
+        <v>4.29</v>
       </c>
       <c r="M1476">
         <v>4.06</v>
@@ -76111,46 +76114,46 @@
     </row>
     <row r="1477" spans="1:16">
       <c r="A1477" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1477" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C1477">
-        <v>0.7707474310868565</v>
+        <v>0.8505918125275245</v>
       </c>
       <c r="D1477" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="E1477">
-        <v>0.9961364774851869</v>
+        <v>0.988244063403295</v>
       </c>
       <c r="F1477">
         <v>1</v>
       </c>
       <c r="G1477">
-        <v>0.007809252568913143</v>
+        <v>0.007989408187472477</v>
       </c>
       <c r="H1477">
-        <v>0.007783863522514812</v>
+        <v>0.007491755936596706</v>
       </c>
       <c r="I1477">
-        <v>0.2253890463983304</v>
+        <v>0.1376522508757705</v>
       </c>
       <c r="J1477">
         <v>0.8359269759888702</v>
       </c>
       <c r="K1477">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="L1477">
-        <v>4.29</v>
+        <v>4.42</v>
       </c>
       <c r="M1477">
-        <v>4.06</v>
+        <v>3.89</v>
       </c>
       <c r="N1477">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="O1477">
         <v>1</v>
@@ -76161,46 +76164,46 @@
     </row>
     <row r="1478" spans="1:16">
       <c r="A1478" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1478" t="s">
         <v>330</v>
       </c>
       <c r="C1478">
-        <v>0.8505918125275245</v>
+        <v>1.07480698436374</v>
       </c>
       <c r="D1478" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E1478">
-        <v>0.988244063403295</v>
+        <v>1.023633109801625</v>
       </c>
       <c r="F1478">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1478">
-        <v>0.007989408187472477</v>
+        <v>0.007645193015636261</v>
       </c>
       <c r="H1478">
-        <v>0.007491755936596706</v>
+        <v>0.007276366890198375</v>
       </c>
       <c r="I1478">
-        <v>0.1376522508757705</v>
+        <v>0.05117387456211464</v>
       </c>
       <c r="J1478">
         <v>0.8359269759888702</v>
       </c>
       <c r="K1478">
-        <v>4.27</v>
+        <v>3.93</v>
       </c>
       <c r="L1478">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="M1478">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="N1478">
-        <v>4.24</v>
+        <v>4.15</v>
       </c>
       <c r="O1478">
         <v>1</v>
@@ -76211,46 +76214,46 @@
     </row>
     <row r="1479" spans="1:16">
       <c r="A1479" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1479" t="s">
         <v>331</v>
       </c>
       <c r="C1479">
-        <v>1.07480698436374</v>
+        <v>1.076603333163184</v>
       </c>
       <c r="D1479" t="s">
         <v>503</v>
       </c>
       <c r="E1479">
-        <v>1.026914570281848</v>
+        <v>1.023633109801625</v>
       </c>
       <c r="F1479">
         <v>-1</v>
       </c>
       <c r="G1479">
-        <v>0.007645193015636261</v>
+        <v>0.007563396666836817</v>
       </c>
       <c r="H1479">
-        <v>0.007313085429718152</v>
+        <v>0.007276366890198375</v>
       </c>
       <c r="I1479">
-        <v>0.04789241408189193</v>
+        <v>0.05297022336155832</v>
       </c>
       <c r="J1479">
         <v>0.8359269759888702</v>
       </c>
       <c r="K1479">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1479">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1479">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1479">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1479">
         <v>1</v>
@@ -76261,46 +76264,46 @@
     </row>
     <row r="1480" spans="1:16">
       <c r="A1480" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1480" t="s">
         <v>332</v>
       </c>
       <c r="C1480">
-        <v>1.076603333163184</v>
+        <v>1.081992379561514</v>
       </c>
       <c r="D1480" t="s">
         <v>503</v>
       </c>
       <c r="E1480">
-        <v>1.026914570281848</v>
+        <v>1.023633109801625</v>
       </c>
       <c r="F1480">
         <v>-1</v>
       </c>
       <c r="G1480">
-        <v>0.007563396666836817</v>
+        <v>0.007318007620438486</v>
       </c>
       <c r="H1480">
-        <v>0.007313085429718152</v>
+        <v>0.007276366890198375</v>
       </c>
       <c r="I1480">
-        <v>0.04968876288133561</v>
+        <v>0.05835926975988892</v>
       </c>
       <c r="J1480">
         <v>0.8359269759888702</v>
       </c>
       <c r="K1480">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1480">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1480">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1480">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1480">
         <v>1</v>
@@ -76311,96 +76314,96 @@
     </row>
     <row r="1481" spans="1:16">
       <c r="A1481" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1481" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1481">
-        <v>1.081992379561514</v>
+        <v>0.6836426820869081</v>
       </c>
       <c r="D1481" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1481">
-        <v>1.026914570281848</v>
+        <v>0.9121352231051891</v>
       </c>
       <c r="F1481">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1481">
-        <v>0.007318007620438486</v>
+        <v>0.007896357317913091</v>
       </c>
       <c r="H1481">
-        <v>0.007313085429718152</v>
+        <v>0.007867864776894811</v>
       </c>
       <c r="I1481">
-        <v>0.05507780927966621</v>
+        <v>0.228492541018281</v>
       </c>
       <c r="J1481">
-        <v>0.8359269759888702</v>
+        <v>0.8566169401218746</v>
       </c>
       <c r="K1481">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1481">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1481">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1481">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1481">
         <v>1</v>
       </c>
       <c r="P1481" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="1482" spans="1:16">
       <c r="A1482" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1482" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C1482">
-        <v>0.6836426820869081</v>
+        <v>0.7622456656795955</v>
       </c>
       <c r="D1482" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="E1482">
-        <v>0.9121352231051891</v>
+        <v>0.9077601029259079</v>
       </c>
       <c r="F1482">
         <v>1</v>
       </c>
       <c r="G1482">
-        <v>0.007896357317913091</v>
+        <v>0.008077754334320404</v>
       </c>
       <c r="H1482">
-        <v>0.007867864776894811</v>
+        <v>0.007572239897074094</v>
       </c>
       <c r="I1482">
-        <v>0.228492541018281</v>
+        <v>0.1455144372463124</v>
       </c>
       <c r="J1482">
         <v>0.8566169401218746</v>
       </c>
       <c r="K1482">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="L1482">
-        <v>4.29</v>
+        <v>4.42</v>
       </c>
       <c r="M1482">
-        <v>4.06</v>
+        <v>3.89</v>
       </c>
       <c r="N1482">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="O1482">
         <v>1</v>
@@ -76411,46 +76414,46 @@
     </row>
     <row r="1483" spans="1:16">
       <c r="A1483" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1483" t="s">
         <v>330</v>
       </c>
       <c r="C1483">
-        <v>0.7622456656795955</v>
+        <v>0.9934954253210329</v>
       </c>
       <c r="D1483" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E1483">
-        <v>0.9077601029259079</v>
+        <v>0.946252643944189</v>
       </c>
       <c r="F1483">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1483">
-        <v>0.008077754334320404</v>
+        <v>0.007726504574678968</v>
       </c>
       <c r="H1483">
-        <v>0.007572239897074094</v>
+        <v>0.007353747356055812</v>
       </c>
       <c r="I1483">
-        <v>0.1455144372463124</v>
+        <v>0.0472427813768439</v>
       </c>
       <c r="J1483">
         <v>0.8566169401218746</v>
       </c>
       <c r="K1483">
-        <v>4.27</v>
+        <v>3.93</v>
       </c>
       <c r="L1483">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="M1483">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="N1483">
-        <v>4.24</v>
+        <v>4.15</v>
       </c>
       <c r="O1483">
         <v>1</v>
@@ -76461,46 +76464,46 @@
     </row>
     <row r="1484" spans="1:16">
       <c r="A1484" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1484" t="s">
         <v>331</v>
       </c>
       <c r="C1484">
-        <v>0.9934954253210329</v>
+        <v>0.9963262723271269</v>
       </c>
       <c r="D1484" t="s">
         <v>503</v>
       </c>
       <c r="E1484">
-        <v>0.9491203051417516</v>
+        <v>0.946252643944189</v>
       </c>
       <c r="F1484">
         <v>-1</v>
       </c>
       <c r="G1484">
-        <v>0.007726504574678968</v>
+        <v>0.007643673727672873</v>
       </c>
       <c r="H1484">
-        <v>0.007390879694858249</v>
+        <v>0.007353747356055812</v>
       </c>
       <c r="I1484">
-        <v>0.04437512017928125</v>
+        <v>0.05007362838293794</v>
       </c>
       <c r="J1484">
         <v>0.8566169401218746</v>
       </c>
       <c r="K1484">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1484">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1484">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1484">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1484">
         <v>1</v>
@@ -76511,46 +76514,46 @@
     </row>
     <row r="1485" spans="1:16">
       <c r="A1485" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1485" t="s">
         <v>332</v>
       </c>
       <c r="C1485">
-        <v>0.9963262723271269</v>
+        <v>1.004818813345408</v>
       </c>
       <c r="D1485" t="s">
         <v>503</v>
       </c>
       <c r="E1485">
-        <v>0.9491203051417516</v>
+        <v>0.946252643944189</v>
       </c>
       <c r="F1485">
         <v>-1</v>
       </c>
       <c r="G1485">
-        <v>0.007643673727672873</v>
+        <v>0.007395181186654593</v>
       </c>
       <c r="H1485">
-        <v>0.007390879694858249</v>
+        <v>0.007353747356055812</v>
       </c>
       <c r="I1485">
-        <v>0.04720596718537529</v>
+        <v>0.05856616940121873</v>
       </c>
       <c r="J1485">
         <v>0.8566169401218746</v>
       </c>
       <c r="K1485">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1485">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1485">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1485">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1485">
         <v>1</v>
@@ -76561,96 +76564,96 @@
     </row>
     <row r="1486" spans="1:16">
       <c r="A1486" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1486" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1486">
-        <v>1.004818813345408</v>
+        <v>0.6351413294438082</v>
       </c>
       <c r="D1486" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1486">
-        <v>0.9491203051417516</v>
+        <v>0.8653619471595868</v>
       </c>
       <c r="F1486">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1486">
-        <v>0.007395181186654593</v>
+        <v>0.007944858670556191</v>
       </c>
       <c r="H1486">
-        <v>0.007390879694858249</v>
+        <v>0.007914638052840412</v>
       </c>
       <c r="I1486">
-        <v>0.05569850820365607</v>
+        <v>0.2302206177157786</v>
       </c>
       <c r="J1486">
-        <v>0.8566169401218746</v>
+        <v>0.8681374514385254</v>
       </c>
       <c r="K1486">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1486">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1486">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1486">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1486">
         <v>1</v>
       </c>
       <c r="P1486" t="s">
-        <v>618</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1487" spans="1:16">
       <c r="A1487" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1487" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C1487">
-        <v>0.6351413294438082</v>
+        <v>0.7130530823574968</v>
       </c>
       <c r="D1487" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="E1487">
-        <v>0.8653619471595868</v>
+        <v>0.8629453139041363</v>
       </c>
       <c r="F1487">
         <v>1</v>
       </c>
       <c r="G1487">
-        <v>0.007944858670556191</v>
+        <v>0.008126946917642503</v>
       </c>
       <c r="H1487">
-        <v>0.007914638052840412</v>
+        <v>0.007617054686095864</v>
       </c>
       <c r="I1487">
-        <v>0.2302206177157786</v>
+        <v>0.1498922315466396</v>
       </c>
       <c r="J1487">
         <v>0.8681374514385254</v>
       </c>
       <c r="K1487">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="L1487">
-        <v>4.29</v>
+        <v>4.42</v>
       </c>
       <c r="M1487">
-        <v>4.06</v>
+        <v>3.89</v>
       </c>
       <c r="N1487">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="O1487">
         <v>1</v>
@@ -76661,46 +76664,46 @@
     </row>
     <row r="1488" spans="1:16">
       <c r="A1488" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1488" t="s">
         <v>330</v>
       </c>
       <c r="C1488">
-        <v>0.7130530823574968</v>
+        <v>0.9482198158465955</v>
       </c>
       <c r="D1488" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E1488">
-        <v>0.8629453139041363</v>
+        <v>0.9031659316199154</v>
       </c>
       <c r="F1488">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1488">
-        <v>0.008126946917642503</v>
+        <v>0.007771780184153405</v>
       </c>
       <c r="H1488">
-        <v>0.007617054686095864</v>
+        <v>0.007396834068380086</v>
       </c>
       <c r="I1488">
-        <v>0.1498922315466396</v>
+        <v>0.04505388422668011</v>
       </c>
       <c r="J1488">
         <v>0.8681374514385254</v>
       </c>
       <c r="K1488">
-        <v>4.27</v>
+        <v>3.93</v>
       </c>
       <c r="L1488">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="M1488">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="N1488">
-        <v>4.24</v>
+        <v>4.15</v>
       </c>
       <c r="O1488">
         <v>1</v>
@@ -76711,46 +76714,46 @@
     </row>
     <row r="1489" spans="1:16">
       <c r="A1489" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1489" t="s">
         <v>331</v>
       </c>
       <c r="C1489">
-        <v>0.9482198158465955</v>
+        <v>0.9516266884185218</v>
       </c>
       <c r="D1489" t="s">
         <v>503</v>
       </c>
       <c r="E1489">
-        <v>0.9058031825911446</v>
+        <v>0.9031659316199154</v>
       </c>
       <c r="F1489">
         <v>-1</v>
       </c>
       <c r="G1489">
-        <v>0.007771780184153405</v>
+        <v>0.007688373311581479</v>
       </c>
       <c r="H1489">
-        <v>0.007434196817408856</v>
+        <v>0.007396834068380086</v>
       </c>
       <c r="I1489">
-        <v>0.04241663325545098</v>
+        <v>0.0484607567986064</v>
       </c>
       <c r="J1489">
         <v>0.8681374514385254</v>
       </c>
       <c r="K1489">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1489">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1489">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1489">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1489">
         <v>1</v>
@@ -76761,46 +76764,46 @@
     </row>
     <row r="1490" spans="1:16">
       <c r="A1490" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1490" t="s">
         <v>332</v>
       </c>
       <c r="C1490">
-        <v>0.9516266884185218</v>
+        <v>0.9618473061343007</v>
       </c>
       <c r="D1490" t="s">
         <v>503</v>
       </c>
       <c r="E1490">
-        <v>0.9058031825911446</v>
+        <v>0.9031659316199154</v>
       </c>
       <c r="F1490">
         <v>-1</v>
       </c>
       <c r="G1490">
-        <v>0.007688373311581479</v>
+        <v>0.0074381526938657</v>
       </c>
       <c r="H1490">
-        <v>0.007434196817408856</v>
+        <v>0.007396834068380086</v>
       </c>
       <c r="I1490">
-        <v>0.04582350582737726</v>
+        <v>0.05868137451438526</v>
       </c>
       <c r="J1490">
         <v>0.8681374514385254</v>
       </c>
       <c r="K1490">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1490">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1490">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1490">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1490">
         <v>1</v>
@@ -76811,96 +76814,96 @@
     </row>
     <row r="1491" spans="1:16">
       <c r="A1491" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1491" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1491">
-        <v>0.9618473061343007</v>
+        <v>0.5997175654936338</v>
       </c>
       <c r="D1491" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1491">
-        <v>0.9058031825911446</v>
+        <v>0.8312003125663074</v>
       </c>
       <c r="F1491">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1491">
-        <v>0.0074381526938657</v>
+        <v>0.007980282434506367</v>
       </c>
       <c r="H1491">
-        <v>0.007434196817408856</v>
+        <v>0.007948799687433691</v>
       </c>
       <c r="I1491">
-        <v>0.05604412354315613</v>
+        <v>0.2314827470726737</v>
       </c>
       <c r="J1491">
-        <v>0.8681374514385254</v>
+        <v>0.8765516471511559</v>
       </c>
       <c r="K1491">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1491">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1491">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1491">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1491">
         <v>1</v>
       </c>
       <c r="P1491" t="s">
-        <v>328</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1492" spans="1:16">
       <c r="A1492" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1492" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C1492">
-        <v>0.5997175654936338</v>
+        <v>0.9151520266959579</v>
       </c>
       <c r="D1492" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1492">
-        <v>0.8312003125663074</v>
+        <v>0.8716968396546774</v>
       </c>
       <c r="F1492">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1492">
-        <v>0.007980282434506367</v>
+        <v>0.007804847973304043</v>
       </c>
       <c r="H1492">
-        <v>0.007948799687433691</v>
+        <v>0.007428303160345324</v>
       </c>
       <c r="I1492">
-        <v>0.2314827470726737</v>
+        <v>0.04345518704128049</v>
       </c>
       <c r="J1492">
         <v>0.8765516471511559</v>
       </c>
       <c r="K1492">
-        <v>4.21</v>
+        <v>3.93</v>
       </c>
       <c r="L1492">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="M1492">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1492">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1492">
         <v>1</v>
@@ -76911,46 +76914,46 @@
     </row>
     <row r="1493" spans="1:16">
       <c r="A1493" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1493" t="s">
         <v>331</v>
       </c>
       <c r="C1493">
-        <v>0.9151520266959579</v>
+        <v>0.9189796090535158</v>
       </c>
       <c r="D1493" t="s">
         <v>503</v>
       </c>
       <c r="E1493">
-        <v>0.874165806711654</v>
+        <v>0.8716968396546774</v>
       </c>
       <c r="F1493">
         <v>-1</v>
       </c>
       <c r="G1493">
-        <v>0.007804847973304043</v>
+        <v>0.007721020390946486</v>
       </c>
       <c r="H1493">
-        <v>0.007465834193288346</v>
+        <v>0.007428303160345324</v>
       </c>
       <c r="I1493">
-        <v>0.04098621998430385</v>
+        <v>0.04728276939883846</v>
       </c>
       <c r="J1493">
         <v>0.8765516471511559</v>
       </c>
       <c r="K1493">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1493">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1493">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1493">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1493">
         <v>1</v>
@@ -76961,46 +76964,46 @@
     </row>
     <row r="1494" spans="1:16">
       <c r="A1494" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1494" t="s">
         <v>332</v>
       </c>
       <c r="C1494">
-        <v>0.9189796090535158</v>
+        <v>0.9304623561261889</v>
       </c>
       <c r="D1494" t="s">
         <v>503</v>
       </c>
       <c r="E1494">
-        <v>0.874165806711654</v>
+        <v>0.8716968396546774</v>
       </c>
       <c r="F1494">
         <v>-1</v>
       </c>
       <c r="G1494">
-        <v>0.007721020390946486</v>
+        <v>0.007469537643873812</v>
       </c>
       <c r="H1494">
-        <v>0.007465834193288346</v>
+        <v>0.007428303160345324</v>
       </c>
       <c r="I1494">
-        <v>0.04481380234186183</v>
+        <v>0.05876551647151151</v>
       </c>
       <c r="J1494">
         <v>0.8765516471511559</v>
       </c>
       <c r="K1494">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1494">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1494">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1494">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1494">
         <v>1</v>
@@ -77011,96 +77014,96 @@
     </row>
     <row r="1495" spans="1:16">
       <c r="A1495" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1495" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1495">
-        <v>0.9304623561261889</v>
+        <v>0.6026495040012105</v>
       </c>
       <c r="D1495" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1495">
-        <v>0.874165806711654</v>
+        <v>0.8340277877066304</v>
       </c>
       <c r="F1495">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1495">
-        <v>0.007469537643873812</v>
+        <v>0.00797735049599879</v>
       </c>
       <c r="H1495">
-        <v>0.007465834193288346</v>
+        <v>0.007945972212293369</v>
       </c>
       <c r="I1495">
-        <v>0.05629654941453488</v>
+        <v>0.2313782837054199</v>
       </c>
       <c r="J1495">
-        <v>0.8765516471511559</v>
+        <v>0.8758552247028004</v>
       </c>
       <c r="K1495">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1495">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1495">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1495">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1495">
         <v>1</v>
       </c>
       <c r="P1495" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="1496" spans="1:16">
       <c r="A1496" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1496" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C1496">
-        <v>0.6026495040012105</v>
+        <v>0.9178889669179946</v>
       </c>
       <c r="D1496" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1496">
-        <v>0.8340277877066304</v>
+        <v>0.8743014596115266</v>
       </c>
       <c r="F1496">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1496">
-        <v>0.00797735049599879</v>
+        <v>0.007802111033082006</v>
       </c>
       <c r="H1496">
-        <v>0.007945972212293369</v>
+        <v>0.007425698540388474</v>
       </c>
       <c r="I1496">
-        <v>0.2313782837054199</v>
+        <v>0.04358750730646799</v>
       </c>
       <c r="J1496">
         <v>0.8758552247028004</v>
       </c>
       <c r="K1496">
-        <v>4.21</v>
+        <v>3.93</v>
       </c>
       <c r="L1496">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="M1496">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1496">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1496">
         <v>1</v>
@@ -77111,46 +77114,46 @@
     </row>
     <row r="1497" spans="1:16">
       <c r="A1497" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1497" t="s">
         <v>331</v>
       </c>
       <c r="C1497">
-        <v>0.9178889669179946</v>
+        <v>0.9216817281531346</v>
       </c>
       <c r="D1497" t="s">
         <v>503</v>
       </c>
       <c r="E1497">
-        <v>0.8767843551174708</v>
+        <v>0.8743014596115266</v>
       </c>
       <c r="F1497">
         <v>-1</v>
       </c>
       <c r="G1497">
-        <v>0.007802111033082006</v>
+        <v>0.007718318271846866</v>
       </c>
       <c r="H1497">
-        <v>0.00746321564488253</v>
+        <v>0.007425698540388474</v>
       </c>
       <c r="I1497">
-        <v>0.04110461180052383</v>
+        <v>0.04738026854160804</v>
       </c>
       <c r="J1497">
         <v>0.8758552247028004</v>
       </c>
       <c r="K1497">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1497">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1497">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1497">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1497">
         <v>1</v>
@@ -77161,46 +77164,46 @@
     </row>
     <row r="1498" spans="1:16">
       <c r="A1498" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1498" t="s">
         <v>332</v>
       </c>
       <c r="C1498">
-        <v>0.9216817281531346</v>
+        <v>0.9330600118585548</v>
       </c>
       <c r="D1498" t="s">
         <v>503</v>
       </c>
       <c r="E1498">
-        <v>0.8767843551174708</v>
+        <v>0.8743014596115266</v>
       </c>
       <c r="F1498">
         <v>-1</v>
       </c>
       <c r="G1498">
-        <v>0.007718318271846866</v>
+        <v>0.007466939988141446</v>
       </c>
       <c r="H1498">
-        <v>0.00746321564488253</v>
+        <v>0.007425698540388474</v>
       </c>
       <c r="I1498">
-        <v>0.04489737303566388</v>
+        <v>0.0587585522470282</v>
       </c>
       <c r="J1498">
         <v>0.8758552247028004</v>
       </c>
       <c r="K1498">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1498">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1498">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1498">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1498">
         <v>1</v>
@@ -77211,96 +77214,96 @@
     </row>
     <row r="1499" spans="1:16">
       <c r="A1499" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1499" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1499">
-        <v>0.9330600118585548</v>
+        <v>0.5914613178595824</v>
       </c>
       <c r="D1499" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1499">
-        <v>0.8767843551174708</v>
+        <v>0.8232382305249182</v>
       </c>
       <c r="F1499">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1499">
-        <v>0.007466939988141446</v>
+        <v>0.007988538682140417</v>
       </c>
       <c r="H1499">
-        <v>0.00746321564488253</v>
+        <v>0.007956761769475081</v>
       </c>
       <c r="I1499">
-        <v>0.05627565674108403</v>
+        <v>0.2317769126653357</v>
       </c>
       <c r="J1499">
-        <v>0.8758552247028004</v>
+        <v>0.8785127511022369</v>
       </c>
       <c r="K1499">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1499">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1499">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1499">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1499">
         <v>1</v>
       </c>
       <c r="P1499" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1500" spans="1:16">
       <c r="A1500" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1500" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C1500">
-        <v>0.5914613178595824</v>
+        <v>0.9074448881682091</v>
       </c>
       <c r="D1500" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1500">
-        <v>0.8232382305249182</v>
+        <v>0.8643623108776342</v>
       </c>
       <c r="F1500">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1500">
-        <v>0.007988538682140417</v>
+        <v>0.007812555111831791</v>
       </c>
       <c r="H1500">
-        <v>0.007956761769475081</v>
+        <v>0.007435637689122366</v>
       </c>
       <c r="I1500">
-        <v>0.2317769126653357</v>
+        <v>0.04308257729057496</v>
       </c>
       <c r="J1500">
         <v>0.8785127511022369</v>
       </c>
       <c r="K1500">
-        <v>4.21</v>
+        <v>3.93</v>
       </c>
       <c r="L1500">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="M1500">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1500">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1500">
         <v>1</v>
@@ -77311,46 +77314,46 @@
     </row>
     <row r="1501" spans="1:16">
       <c r="A1501" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1501" t="s">
         <v>331</v>
       </c>
       <c r="C1501">
-        <v>0.9074448881682091</v>
+        <v>0.9113705257233211</v>
       </c>
       <c r="D1501" t="s">
         <v>503</v>
       </c>
       <c r="E1501">
-        <v>0.8667920558555893</v>
+        <v>0.8643623108776342</v>
       </c>
       <c r="F1501">
         <v>-1</v>
       </c>
       <c r="G1501">
-        <v>0.007812555111831791</v>
+        <v>0.00772862947427668</v>
       </c>
       <c r="H1501">
-        <v>0.007473207944144411</v>
+        <v>0.007435637689122366</v>
       </c>
       <c r="I1501">
-        <v>0.04065283231261985</v>
+        <v>0.04700821484568696</v>
       </c>
       <c r="J1501">
         <v>0.8785127511022369</v>
       </c>
       <c r="K1501">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1501">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1501">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1501">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1501">
         <v>1</v>
@@ -77361,46 +77364,46 @@
     </row>
     <row r="1502" spans="1:16">
       <c r="A1502" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1502" t="s">
         <v>332</v>
       </c>
       <c r="C1502">
-        <v>0.9113705257233211</v>
+        <v>0.9231474383886566</v>
       </c>
       <c r="D1502" t="s">
         <v>503</v>
       </c>
       <c r="E1502">
-        <v>0.8667920558555893</v>
+        <v>0.8643623108776342</v>
       </c>
       <c r="F1502">
         <v>-1</v>
       </c>
       <c r="G1502">
-        <v>0.00772862947427668</v>
+        <v>0.007476852561611343</v>
       </c>
       <c r="H1502">
-        <v>0.007473207944144411</v>
+        <v>0.007435637689122366</v>
       </c>
       <c r="I1502">
-        <v>0.04457846986773184</v>
+        <v>0.05878512751102249</v>
       </c>
       <c r="J1502">
         <v>0.8785127511022369</v>
       </c>
       <c r="K1502">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1502">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1502">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1502">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1502">
         <v>1</v>
@@ -77411,96 +77414,96 @@
     </row>
     <row r="1503" spans="1:16">
       <c r="A1503" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1503" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1503">
-        <v>0.9231474383886566</v>
+        <v>0.5772671182303366</v>
       </c>
       <c r="D1503" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1503">
-        <v>0.8667920558555893</v>
+        <v>0.8095497624739112</v>
       </c>
       <c r="F1503">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1503">
-        <v>0.007476852561611343</v>
+        <v>0.008002732881769664</v>
       </c>
       <c r="H1503">
-        <v>0.007473207944144411</v>
+        <v>0.007970450237526088</v>
       </c>
       <c r="I1503">
-        <v>0.05635538253306738</v>
+        <v>0.2322826442435746</v>
       </c>
       <c r="J1503">
-        <v>0.8785127511022369</v>
+        <v>0.8818842949571647</v>
       </c>
       <c r="K1503">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1503">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1503">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1503">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1503">
         <v>1</v>
       </c>
       <c r="P1503" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1504" spans="1:16">
       <c r="A1504" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1504" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C1504">
-        <v>0.5772671182303366</v>
+        <v>0.8941947208183429</v>
       </c>
       <c r="D1504" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1504">
-        <v>0.8095497624739112</v>
+        <v>0.8517527368602043</v>
       </c>
       <c r="F1504">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1504">
-        <v>0.008002732881769664</v>
+        <v>0.007825805279181659</v>
       </c>
       <c r="H1504">
-        <v>0.007970450237526088</v>
+        <v>0.007448247263139796</v>
       </c>
       <c r="I1504">
-        <v>0.2322826442435746</v>
+        <v>0.0424419839581387</v>
       </c>
       <c r="J1504">
         <v>0.8818842949571647</v>
       </c>
       <c r="K1504">
-        <v>4.21</v>
+        <v>3.93</v>
       </c>
       <c r="L1504">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="M1504">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1504">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1504">
         <v>1</v>
@@ -77511,46 +77514,46 @@
     </row>
     <row r="1505" spans="1:16">
       <c r="A1505" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1505" t="s">
         <v>331</v>
       </c>
       <c r="C1505">
-        <v>0.8941947208183429</v>
+        <v>0.8982889355662014</v>
       </c>
       <c r="D1505" t="s">
         <v>503</v>
       </c>
       <c r="E1505">
-        <v>0.8541150509610609</v>
+        <v>0.8517527368602043</v>
       </c>
       <c r="F1505">
         <v>-1</v>
       </c>
       <c r="G1505">
-        <v>0.007825805279181659</v>
+        <v>0.0077417110644338</v>
       </c>
       <c r="H1505">
-        <v>0.007485884949038939</v>
+        <v>0.007448247263139796</v>
       </c>
       <c r="I1505">
-        <v>0.04007966985728206</v>
+        <v>0.04653619870599712</v>
       </c>
       <c r="J1505">
         <v>0.8818842949571647</v>
       </c>
       <c r="K1505">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1505">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1505">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1505">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1505">
         <v>1</v>
@@ -77561,46 +77564,46 @@
     </row>
     <row r="1506" spans="1:16">
       <c r="A1506" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1506" t="s">
         <v>332</v>
       </c>
       <c r="C1506">
-        <v>0.8982889355662014</v>
+        <v>0.9105715798097758</v>
       </c>
       <c r="D1506" t="s">
         <v>503</v>
       </c>
       <c r="E1506">
-        <v>0.8541150509610609</v>
+        <v>0.8517527368602043</v>
       </c>
       <c r="F1506">
         <v>-1</v>
       </c>
       <c r="G1506">
-        <v>0.0077417110644338</v>
+        <v>0.007489428420190224</v>
       </c>
       <c r="H1506">
-        <v>0.007485884949038939</v>
+        <v>0.007448247263139796</v>
       </c>
       <c r="I1506">
-        <v>0.04417388460514049</v>
+        <v>0.05881884294957151</v>
       </c>
       <c r="J1506">
         <v>0.8818842949571647</v>
       </c>
       <c r="K1506">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1506">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1506">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1506">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1506">
         <v>1</v>
@@ -77611,96 +77614,96 @@
     </row>
     <row r="1507" spans="1:16">
       <c r="A1507" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1507" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1507">
-        <v>0.9105715798097758</v>
+        <v>0.575743272672828</v>
       </c>
       <c r="D1507" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1507">
-        <v>0.8541150509610609</v>
+        <v>0.808080210701112</v>
       </c>
       <c r="F1507">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1507">
-        <v>0.007489428420190224</v>
+        <v>0.008004256727327172</v>
       </c>
       <c r="H1507">
-        <v>0.007485884949038939</v>
+        <v>0.007971919789298888</v>
       </c>
       <c r="I1507">
-        <v>0.05645652884871488</v>
+        <v>0.232336938028284</v>
       </c>
       <c r="J1507">
-        <v>0.8818842949571647</v>
+        <v>0.8822462535218936</v>
       </c>
       <c r="K1507">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1507">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1507">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1507">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1507">
         <v>1</v>
       </c>
       <c r="P1507" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1508" spans="1:16">
       <c r="A1508" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1508" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C1508">
-        <v>0.575743272672828</v>
+        <v>0.8927722236589584</v>
       </c>
       <c r="D1508" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1508">
-        <v>0.808080210701112</v>
+        <v>0.8503990118281184</v>
       </c>
       <c r="F1508">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1508">
-        <v>0.008004256727327172</v>
+        <v>0.007827227776341043</v>
       </c>
       <c r="H1508">
-        <v>0.007971919789298888</v>
+        <v>0.007449600988171883</v>
       </c>
       <c r="I1508">
-        <v>0.232336938028284</v>
+        <v>0.04237321183083997</v>
       </c>
       <c r="J1508">
         <v>0.8822462535218936</v>
       </c>
       <c r="K1508">
-        <v>4.21</v>
+        <v>3.93</v>
       </c>
       <c r="L1508">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="M1508">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1508">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1508">
         <v>1</v>
@@ -77711,46 +77714,46 @@
     </row>
     <row r="1509" spans="1:16">
       <c r="A1509" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1509" t="s">
         <v>331</v>
       </c>
       <c r="C1509">
-        <v>0.8927722236589584</v>
+        <v>0.8968845363350533</v>
       </c>
       <c r="D1509" t="s">
         <v>503</v>
       </c>
       <c r="E1509">
-        <v>0.8527540867576802</v>
+        <v>0.8503990118281184</v>
       </c>
       <c r="F1509">
         <v>-1</v>
       </c>
       <c r="G1509">
-        <v>0.007827227776341043</v>
+        <v>0.007743115463664948</v>
       </c>
       <c r="H1509">
-        <v>0.007487245913242319</v>
+        <v>0.007449600988171883</v>
       </c>
       <c r="I1509">
-        <v>0.0400181369012782</v>
+        <v>0.04648552450693488</v>
       </c>
       <c r="J1509">
         <v>0.8822462535218936</v>
       </c>
       <c r="K1509">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1509">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1509">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1509">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1509">
         <v>1</v>
@@ -77761,46 +77764,46 @@
     </row>
     <row r="1510" spans="1:16">
       <c r="A1510" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1510" t="s">
         <v>332</v>
       </c>
       <c r="C1510">
-        <v>0.8968845363350533</v>
+        <v>0.9092214743633371</v>
       </c>
       <c r="D1510" t="s">
         <v>503</v>
       </c>
       <c r="E1510">
-        <v>0.8527540867576802</v>
+        <v>0.8503990118281184</v>
       </c>
       <c r="F1510">
         <v>-1</v>
       </c>
       <c r="G1510">
-        <v>0.007743115463664948</v>
+        <v>0.007490778525636664</v>
       </c>
       <c r="H1510">
-        <v>0.007487245913242319</v>
+        <v>0.007449600988171883</v>
       </c>
       <c r="I1510">
-        <v>0.04413044957737311</v>
+        <v>0.05882246253521872</v>
       </c>
       <c r="J1510">
         <v>0.8822462535218936</v>
       </c>
       <c r="K1510">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1510">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1510">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1510">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1510">
         <v>1</v>
@@ -77811,96 +77814,96 @@
     </row>
     <row r="1511" spans="1:16">
       <c r="A1511" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1511" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1511">
-        <v>0.9092214743633371</v>
+        <v>0.5838069300366193</v>
       </c>
       <c r="D1511" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1511">
-        <v>0.8527540867576802</v>
+        <v>0.8158565643583549</v>
       </c>
       <c r="F1511">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1511">
-        <v>0.007490778525636664</v>
+        <v>0.007996193069963381</v>
       </c>
       <c r="H1511">
-        <v>0.007487245913242319</v>
+        <v>0.007964143435641644</v>
       </c>
       <c r="I1511">
-        <v>0.05646738760565695</v>
+        <v>0.2320496343217355</v>
       </c>
       <c r="J1511">
-        <v>0.8822462535218936</v>
+        <v>0.8803308954782377</v>
       </c>
       <c r="K1511">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1511">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1511">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1511">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1511">
         <v>1</v>
       </c>
       <c r="P1511" t="s">
-        <v>623</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1512" spans="1:16">
       <c r="A1512" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1512" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C1512">
-        <v>0.5838069300366193</v>
+        <v>0.9002995807705259</v>
       </c>
       <c r="D1512" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1512">
-        <v>0.8158565643583549</v>
+        <v>0.857562450911391</v>
       </c>
       <c r="F1512">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1512">
-        <v>0.007996193069963381</v>
+        <v>0.007819700419229475</v>
       </c>
       <c r="H1512">
-        <v>0.007964143435641644</v>
+        <v>0.007442437549088609</v>
       </c>
       <c r="I1512">
-        <v>0.2320496343217355</v>
+        <v>0.0427371298591348</v>
       </c>
       <c r="J1512">
         <v>0.8803308954782377</v>
       </c>
       <c r="K1512">
-        <v>4.21</v>
+        <v>3.93</v>
       </c>
       <c r="L1512">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="M1512">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1512">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1512">
         <v>1</v>
@@ -77911,46 +77914,46 @@
     </row>
     <row r="1513" spans="1:16">
       <c r="A1513" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1513" t="s">
         <v>331</v>
       </c>
       <c r="C1513">
-        <v>0.9002995807705259</v>
+        <v>0.9043161255444381</v>
       </c>
       <c r="D1513" t="s">
         <v>503</v>
       </c>
       <c r="E1513">
-        <v>0.8599558330018264</v>
+        <v>0.857562450911391</v>
       </c>
       <c r="F1513">
         <v>-1</v>
       </c>
       <c r="G1513">
-        <v>0.007819700419229475</v>
+        <v>0.007735683874455562</v>
       </c>
       <c r="H1513">
-        <v>0.007480044166998173</v>
+        <v>0.007442437549088609</v>
       </c>
       <c r="I1513">
-        <v>0.04034374776869942</v>
+        <v>0.04675367463304703</v>
       </c>
       <c r="J1513">
         <v>0.8803308954782377</v>
       </c>
       <c r="K1513">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1513">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1513">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1513">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1513">
         <v>1</v>
@@ -77961,46 +77964,46 @@
     </row>
     <row r="1514" spans="1:16">
       <c r="A1514" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1514" t="s">
         <v>332</v>
       </c>
       <c r="C1514">
-        <v>0.9043161255444381</v>
+        <v>0.9163657598661734</v>
       </c>
       <c r="D1514" t="s">
         <v>503</v>
       </c>
       <c r="E1514">
-        <v>0.8599558330018264</v>
+        <v>0.857562450911391</v>
       </c>
       <c r="F1514">
         <v>-1</v>
       </c>
       <c r="G1514">
-        <v>0.007735683874455562</v>
+        <v>0.007483634240133827</v>
       </c>
       <c r="H1514">
-        <v>0.007480044166998173</v>
+        <v>0.007442437549088609</v>
       </c>
       <c r="I1514">
-        <v>0.04436029254261165</v>
+        <v>0.05880330895478236</v>
       </c>
       <c r="J1514">
         <v>0.8803308954782377</v>
       </c>
       <c r="K1514">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1514">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1514">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1514">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1514">
         <v>1</v>
@@ -78011,96 +78014,96 @@
     </row>
     <row r="1515" spans="1:16">
       <c r="A1515" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1515" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1515">
-        <v>0.9163657598661734</v>
+        <v>0.6011222615020086</v>
       </c>
       <c r="D1515" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1515">
-        <v>0.8599558330018264</v>
+        <v>0.8325549600233146</v>
       </c>
       <c r="F1515">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1515">
-        <v>0.007483634240133827</v>
+        <v>0.007978877738497991</v>
       </c>
       <c r="H1515">
-        <v>0.007480044166998173</v>
+        <v>0.007947445039976686</v>
       </c>
       <c r="I1515">
-        <v>0.05640992686434698</v>
+        <v>0.231432698521306</v>
       </c>
       <c r="J1515">
-        <v>0.8803308954782377</v>
+        <v>0.8762179901420407</v>
       </c>
       <c r="K1515">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1515">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1515">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1515">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1515">
         <v>1</v>
       </c>
       <c r="P1515" t="s">
-        <v>498</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1516" spans="1:16">
       <c r="A1516" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1516" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C1516">
-        <v>0.6011222615020086</v>
+        <v>0.91646329874178</v>
       </c>
       <c r="D1516" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1516">
-        <v>0.8325549600233146</v>
+        <v>0.8729447168687678</v>
       </c>
       <c r="F1516">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1516">
-        <v>0.007978877738497991</v>
+        <v>0.007803536701258221</v>
       </c>
       <c r="H1516">
-        <v>0.007947445039976686</v>
+        <v>0.007427055283131234</v>
       </c>
       <c r="I1516">
-        <v>0.231432698521306</v>
+        <v>0.04351858187301216</v>
       </c>
       <c r="J1516">
         <v>0.8762179901420407</v>
       </c>
       <c r="K1516">
-        <v>4.21</v>
+        <v>3.93</v>
       </c>
       <c r="L1516">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="M1516">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1516">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1516">
         <v>1</v>
@@ -78111,46 +78114,46 @@
     </row>
     <row r="1517" spans="1:16">
       <c r="A1517" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1517" t="s">
         <v>331</v>
       </c>
       <c r="C1517">
-        <v>0.91646329874178</v>
+        <v>0.9202741982488822</v>
       </c>
       <c r="D1517" t="s">
         <v>503</v>
       </c>
       <c r="E1517">
-        <v>0.8754203570659271</v>
+        <v>0.8729447168687678</v>
       </c>
       <c r="F1517">
         <v>-1</v>
       </c>
       <c r="G1517">
-        <v>0.007803536701258221</v>
+        <v>0.007719725801751119</v>
       </c>
       <c r="H1517">
-        <v>0.007464579642934073</v>
+        <v>0.007427055283131234</v>
       </c>
       <c r="I1517">
-        <v>0.04104294167585287</v>
+        <v>0.04732948138011439</v>
       </c>
       <c r="J1517">
         <v>0.8762179901420407</v>
       </c>
       <c r="K1517">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1517">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1517">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1517">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1517">
         <v>1</v>
@@ -78161,46 +78164,46 @@
     </row>
     <row r="1518" spans="1:16">
       <c r="A1518" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1518" t="s">
         <v>332</v>
       </c>
       <c r="C1518">
-        <v>0.9202741982488822</v>
+        <v>0.9317068967701885</v>
       </c>
       <c r="D1518" t="s">
         <v>503</v>
       </c>
       <c r="E1518">
-        <v>0.8754203570659271</v>
+        <v>0.8729447168687678</v>
       </c>
       <c r="F1518">
         <v>-1</v>
       </c>
       <c r="G1518">
-        <v>0.007719725801751119</v>
+        <v>0.007468293103229812</v>
       </c>
       <c r="H1518">
-        <v>0.007464579642934073</v>
+        <v>0.007427055283131234</v>
       </c>
       <c r="I1518">
-        <v>0.0448538411829551</v>
+        <v>0.05876217990142063</v>
       </c>
       <c r="J1518">
         <v>0.8762179901420407</v>
       </c>
       <c r="K1518">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1518">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1518">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1518">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1518">
         <v>1</v>
@@ -78211,96 +78214,96 @@
     </row>
     <row r="1519" spans="1:16">
       <c r="A1519" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1519" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1519">
-        <v>0.9317068967701885</v>
+        <v>0.6125787248177463</v>
       </c>
       <c r="D1519" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1519">
-        <v>0.8754203570659271</v>
+        <v>0.8436032358099879</v>
       </c>
       <c r="F1519">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1519">
-        <v>0.007468293103229812</v>
+        <v>0.007967421275182254</v>
       </c>
       <c r="H1519">
-        <v>0.007464579642934073</v>
+        <v>0.007936396764190012</v>
       </c>
       <c r="I1519">
-        <v>0.05628653970426134</v>
+        <v>0.2310245109922415</v>
       </c>
       <c r="J1519">
-        <v>0.8762179901420407</v>
+        <v>0.8734967399482788</v>
       </c>
       <c r="K1519">
-        <v>3.73</v>
+        <v>4.21</v>
       </c>
       <c r="L1519">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="M1519">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1519">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1519">
         <v>1</v>
       </c>
       <c r="P1519" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1520" spans="1:16">
       <c r="A1520" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1520" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C1520">
-        <v>0.6125787248177463</v>
+        <v>0.9271578120032644</v>
       </c>
       <c r="D1520" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1520">
-        <v>0.8436032358099879</v>
+        <v>0.8831221925934374</v>
       </c>
       <c r="F1520">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1520">
-        <v>0.007967421275182254</v>
+        <v>0.007792842187996737</v>
       </c>
       <c r="H1520">
-        <v>0.007936396764190012</v>
+        <v>0.007416877807406563</v>
       </c>
       <c r="I1520">
-        <v>0.2310245109922415</v>
+        <v>0.04403561940982703</v>
       </c>
       <c r="J1520">
         <v>0.8734967399482788</v>
       </c>
       <c r="K1520">
-        <v>4.21</v>
+        <v>3.93</v>
       </c>
       <c r="L1520">
-        <v>4.29</v>
+        <v>4.36</v>
       </c>
       <c r="M1520">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1520">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1520">
         <v>1</v>
@@ -78311,46 +78314,46 @@
     </row>
     <row r="1521" spans="1:16">
       <c r="A1521" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1521" t="s">
         <v>331</v>
       </c>
       <c r="C1521">
-        <v>0.9271578120032644</v>
+        <v>0.9308326490006786</v>
       </c>
       <c r="D1521" t="s">
         <v>503</v>
       </c>
       <c r="E1521">
-        <v>0.8856522577944719</v>
+        <v>0.8831221925934374</v>
       </c>
       <c r="F1521">
         <v>-1</v>
       </c>
       <c r="G1521">
-        <v>0.007792842187996737</v>
+        <v>0.007709167350999322</v>
       </c>
       <c r="H1521">
-        <v>0.007454347742205528</v>
+        <v>0.007416877807406563</v>
       </c>
       <c r="I1521">
-        <v>0.04150555420879254</v>
+        <v>0.04771045640724125</v>
       </c>
       <c r="J1521">
         <v>0.8734967399482788</v>
       </c>
       <c r="K1521">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1521">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1521">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1521">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1521">
         <v>1</v>
@@ -78361,46 +78364,46 @@
     </row>
     <row r="1522" spans="1:16">
       <c r="A1522" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1522" t="s">
         <v>332</v>
       </c>
       <c r="C1522">
-        <v>0.9308326490006786</v>
+        <v>0.9418571599929204</v>
       </c>
       <c r="D1522" t="s">
         <v>503</v>
       </c>
       <c r="E1522">
-        <v>0.8856522577944719</v>
+        <v>0.8831221925934374</v>
       </c>
       <c r="F1522">
         <v>-1</v>
       </c>
       <c r="G1522">
-        <v>0.007709167350999322</v>
+        <v>0.00745814284000708</v>
       </c>
       <c r="H1522">
-        <v>0.007454347742205528</v>
+        <v>0.007416877807406563</v>
       </c>
       <c r="I1522">
-        <v>0.04518039120620676</v>
+        <v>0.05873496739948303</v>
       </c>
       <c r="J1522">
         <v>0.8734967399482788</v>
       </c>
       <c r="K1522">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1522">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1522">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1522">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1522">
         <v>1</v>
@@ -78411,96 +78414,96 @@
     </row>
     <row r="1523" spans="1:16">
       <c r="A1523" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1523" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C1523">
-        <v>0.9418571599929204</v>
+        <v>0.9562598140339427</v>
       </c>
       <c r="D1523" t="s">
         <v>503</v>
       </c>
       <c r="E1523">
-        <v>0.8856522577944719</v>
+        <v>0.910817227604821</v>
       </c>
       <c r="F1523">
         <v>-1</v>
       </c>
       <c r="G1523">
-        <v>0.00745814284000708</v>
+        <v>0.007763740185966058</v>
       </c>
       <c r="H1523">
-        <v>0.007454347742205528</v>
+        <v>0.00738918277239518</v>
       </c>
       <c r="I1523">
-        <v>0.05620490219844854</v>
+        <v>0.04544258642912169</v>
       </c>
       <c r="J1523">
-        <v>0.8734967399482788</v>
+        <v>0.8660916503730426</v>
       </c>
       <c r="K1523">
-        <v>3.73</v>
+        <v>3.93</v>
       </c>
       <c r="L1523">
-        <v>4.2</v>
+        <v>4.36</v>
       </c>
       <c r="M1523">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1523">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1523">
         <v>1</v>
       </c>
       <c r="P1523" t="s">
-        <v>625</v>
+        <v>327</v>
       </c>
     </row>
     <row r="1524" spans="1:16">
       <c r="A1524" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1524" t="s">
         <v>331</v>
       </c>
       <c r="C1524">
-        <v>0.9562598140339427</v>
+        <v>0.9595643965525951</v>
       </c>
       <c r="D1524" t="s">
         <v>503</v>
       </c>
       <c r="E1524">
-        <v>0.9134953945973598</v>
+        <v>0.910817227604821</v>
       </c>
       <c r="F1524">
         <v>-1</v>
       </c>
       <c r="G1524">
-        <v>0.007763740185966058</v>
+        <v>0.007680435603447405</v>
       </c>
       <c r="H1524">
-        <v>0.00742650460540264</v>
+        <v>0.00738918277239518</v>
       </c>
       <c r="I1524">
-        <v>0.04276441943658282</v>
+        <v>0.04874716894777409</v>
       </c>
       <c r="J1524">
         <v>0.8660916503730426</v>
       </c>
       <c r="K1524">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1524">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1524">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1524">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1524">
         <v>1</v>
@@ -78511,46 +78514,46 @@
     </row>
     <row r="1525" spans="1:16">
       <c r="A1525" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1525" t="s">
         <v>332</v>
       </c>
       <c r="C1525">
-        <v>0.9595643965525951</v>
+        <v>0.9694781441085514</v>
       </c>
       <c r="D1525" t="s">
         <v>503</v>
       </c>
       <c r="E1525">
-        <v>0.9134953945973598</v>
+        <v>0.910817227604821</v>
       </c>
       <c r="F1525">
         <v>-1</v>
       </c>
       <c r="G1525">
-        <v>0.007680435603447405</v>
+        <v>0.00743052185589145</v>
       </c>
       <c r="H1525">
-        <v>0.00742650460540264</v>
+        <v>0.00738918277239518</v>
       </c>
       <c r="I1525">
-        <v>0.04606900195523522</v>
+        <v>0.0586609165037304</v>
       </c>
       <c r="J1525">
         <v>0.8660916503730426</v>
       </c>
       <c r="K1525">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1525">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1525">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1525">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1525">
         <v>1</v>
@@ -78561,96 +78564,96 @@
     </row>
     <row r="1526" spans="1:16">
       <c r="A1526" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1526" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C1526">
-        <v>0.9694781441085514</v>
+        <v>0.9911624951920448</v>
       </c>
       <c r="D1526" t="s">
         <v>503</v>
       </c>
       <c r="E1526">
-        <v>0.9134953945973598</v>
+        <v>0.9440325017858138</v>
       </c>
       <c r="F1526">
         <v>-1</v>
       </c>
       <c r="G1526">
-        <v>0.00743052185589145</v>
+        <v>0.007728837504807956</v>
       </c>
       <c r="H1526">
-        <v>0.00742650460540264</v>
+        <v>0.007355967498214188</v>
       </c>
       <c r="I1526">
-        <v>0.05598274951119153</v>
+        <v>0.04712999340623103</v>
       </c>
       <c r="J1526">
-        <v>0.8660916503730426</v>
+        <v>0.8572105610198359</v>
       </c>
       <c r="K1526">
-        <v>3.73</v>
+        <v>3.93</v>
       </c>
       <c r="L1526">
-        <v>4.2</v>
+        <v>4.36</v>
       </c>
       <c r="M1526">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1526">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1526">
         <v>1</v>
       </c>
       <c r="P1526" t="s">
-        <v>327</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1527" spans="1:16">
       <c r="A1527" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1527" t="s">
         <v>331</v>
       </c>
       <c r="C1527">
-        <v>0.9911624951920448</v>
+        <v>0.9940230232430367</v>
       </c>
       <c r="D1527" t="s">
         <v>503</v>
       </c>
       <c r="E1527">
-        <v>0.946888290565417</v>
+        <v>0.9440325017858138</v>
       </c>
       <c r="F1527">
         <v>-1</v>
       </c>
       <c r="G1527">
-        <v>0.007728837504807956</v>
+        <v>0.007645976976756965</v>
       </c>
       <c r="H1527">
-        <v>0.007393111709434583</v>
+        <v>0.007355967498214188</v>
       </c>
       <c r="I1527">
-        <v>0.04427420462662779</v>
+        <v>0.04999052145722294</v>
       </c>
       <c r="J1527">
         <v>0.8572105610198359</v>
       </c>
       <c r="K1527">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1527">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1527">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1527">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1527">
         <v>1</v>
@@ -78661,46 +78664,46 @@
     </row>
     <row r="1528" spans="1:16">
       <c r="A1528" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1528" t="s">
         <v>332</v>
       </c>
       <c r="C1528">
-        <v>0.9940230232430367</v>
+        <v>1.002604607396012</v>
       </c>
       <c r="D1528" t="s">
         <v>503</v>
       </c>
       <c r="E1528">
-        <v>0.946888290565417</v>
+        <v>0.9440325017858138</v>
       </c>
       <c r="F1528">
         <v>-1</v>
       </c>
       <c r="G1528">
-        <v>0.007645976976756965</v>
+        <v>0.007397395392603988</v>
       </c>
       <c r="H1528">
-        <v>0.007393111709434583</v>
+        <v>0.007355967498214188</v>
       </c>
       <c r="I1528">
-        <v>0.0471347326776197</v>
+        <v>0.05857210561019821</v>
       </c>
       <c r="J1528">
         <v>0.8572105610198359</v>
       </c>
       <c r="K1528">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1528">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1528">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1528">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1528">
         <v>1</v>
@@ -78711,96 +78714,96 @@
     </row>
     <row r="1529" spans="1:16">
       <c r="A1529" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1529" t="s">
         <v>333</v>
       </c>
       <c r="C1529">
-        <v>1.002604607396012</v>
+        <v>0.7974598664378139</v>
       </c>
       <c r="D1529" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1529">
-        <v>0.946888290565417</v>
+        <v>0.89630122167573</v>
       </c>
       <c r="F1529">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1529">
-        <v>0.007397395392603988</v>
+        <v>0.007922540133562186</v>
       </c>
       <c r="H1529">
-        <v>0.007393111709434583</v>
+        <v>0.007883698778324269</v>
       </c>
       <c r="I1529">
-        <v>0.05571631683059497</v>
+        <v>0.09884135523791615</v>
       </c>
       <c r="J1529">
-        <v>0.8572105610198359</v>
+        <v>0.8605169404739581</v>
       </c>
       <c r="K1529">
-        <v>3.73</v>
+        <v>4.14</v>
       </c>
       <c r="L1529">
-        <v>4.2</v>
+        <v>4.36</v>
       </c>
       <c r="M1529">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1529">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1529">
         <v>1</v>
       </c>
       <c r="P1529" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1530" spans="1:16">
       <c r="A1530" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1530" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C1530">
-        <v>0.7974598664378139</v>
+        <v>0.9781684239373449</v>
       </c>
       <c r="D1530" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="E1530">
-        <v>0.89630122167573</v>
+        <v>0.931666642627397</v>
       </c>
       <c r="F1530">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1530">
-        <v>0.007922540133562186</v>
+        <v>0.007741831576062656</v>
       </c>
       <c r="H1530">
-        <v>0.007883698778324269</v>
+        <v>0.007368333357372604</v>
       </c>
       <c r="I1530">
-        <v>0.09884135523791615</v>
+        <v>0.04650178130994798</v>
       </c>
       <c r="J1530">
         <v>0.8605169404739581</v>
       </c>
       <c r="K1530">
-        <v>4.14</v>
+        <v>3.93</v>
       </c>
       <c r="L1530">
         <v>4.36</v>
       </c>
       <c r="M1530">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="N1530">
-        <v>4.39</v>
+        <v>4.15</v>
       </c>
       <c r="O1530">
         <v>1</v>
@@ -78811,46 +78814,46 @@
     </row>
     <row r="1531" spans="1:16">
       <c r="A1531" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1531" t="s">
         <v>331</v>
       </c>
       <c r="C1531">
-        <v>0.9781684239373449</v>
+        <v>0.9811942709610428</v>
       </c>
       <c r="D1531" t="s">
         <v>503</v>
       </c>
       <c r="E1531">
-        <v>0.9344563038179174</v>
+        <v>0.931666642627397</v>
       </c>
       <c r="F1531">
         <v>-1</v>
       </c>
       <c r="G1531">
-        <v>0.007741831576062656</v>
+        <v>0.007658805729038958</v>
       </c>
       <c r="H1531">
-        <v>0.007405543696182082</v>
+        <v>0.007368333357372604</v>
       </c>
       <c r="I1531">
-        <v>0.04371212011942749</v>
+        <v>0.04952762833364588</v>
       </c>
       <c r="J1531">
         <v>0.8605169404739581</v>
       </c>
       <c r="K1531">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1531">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1531">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1531">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1531">
         <v>1</v>
@@ -78861,46 +78864,46 @@
     </row>
     <row r="1532" spans="1:16">
       <c r="A1532" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1532" t="s">
         <v>332</v>
       </c>
       <c r="C1532">
-        <v>0.9811942709610428</v>
+        <v>0.9902718120321365</v>
       </c>
       <c r="D1532" t="s">
         <v>503</v>
       </c>
       <c r="E1532">
-        <v>0.9344563038179174</v>
+        <v>0.931666642627397</v>
       </c>
       <c r="F1532">
         <v>-1</v>
       </c>
       <c r="G1532">
-        <v>0.007658805729038958</v>
+        <v>0.007409728187967864</v>
       </c>
       <c r="H1532">
-        <v>0.007405543696182082</v>
+        <v>0.007368333357372604</v>
       </c>
       <c r="I1532">
-        <v>0.04673796714312539</v>
+        <v>0.05860516940473959</v>
       </c>
       <c r="J1532">
         <v>0.8605169404739581</v>
       </c>
       <c r="K1532">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1532">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1532">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1532">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1532">
         <v>1</v>
@@ -78911,360 +78914,360 @@
     </row>
     <row r="1533" spans="1:16">
       <c r="A1533" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1533" t="s">
         <v>333</v>
       </c>
       <c r="C1533">
-        <v>0.9902718120321365</v>
+        <v>0.8058566735174559</v>
       </c>
       <c r="D1533" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
       <c r="E1533">
-        <v>0.9344563038179174</v>
+        <v>0.9045357716137361</v>
       </c>
       <c r="F1533">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1533">
-        <v>0.007409728187967864</v>
+        <v>0.007914143326482546</v>
       </c>
       <c r="H1533">
-        <v>0.007405543696182082</v>
+        <v>0.007875464228386263</v>
       </c>
       <c r="I1533">
-        <v>0.0558155082142191</v>
+        <v>0.09867909809628017</v>
       </c>
       <c r="J1533">
-        <v>0.8605169404739581</v>
+        <v>0.8584887262035132</v>
       </c>
       <c r="K1533">
-        <v>3.73</v>
+        <v>4.14</v>
       </c>
       <c r="L1533">
-        <v>4.2</v>
+        <v>4.36</v>
       </c>
       <c r="M1533">
-        <v>3.76</v>
+        <v>4.06</v>
       </c>
       <c r="N1533">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="O1533">
         <v>1</v>
       </c>
       <c r="P1533" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1534" spans="1:16">
       <c r="A1534" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1534" t="s">
         <v>334</v>
       </c>
       <c r="C1534">
-        <v>0.8058566735174559</v>
+        <v>0.7501020117313497</v>
       </c>
       <c r="D1534" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="E1534">
-        <v>0.9045357716137361</v>
+        <v>0.9004788550683336</v>
       </c>
       <c r="F1534">
         <v>1</v>
       </c>
       <c r="G1534">
-        <v>0.007914143326482546</v>
+        <v>0.00790989798826865</v>
       </c>
       <c r="H1534">
-        <v>0.007875464228386263</v>
+        <v>0.007579521144931666</v>
       </c>
       <c r="I1534">
-        <v>0.09867909809628017</v>
+        <v>0.1503768433369839</v>
       </c>
       <c r="J1534">
         <v>0.8584887262035132</v>
       </c>
       <c r="K1534">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="L1534">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="M1534">
-        <v>4.06</v>
+        <v>3.89</v>
       </c>
       <c r="N1534">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="O1534">
         <v>1</v>
       </c>
       <c r="P1534" t="s">
-        <v>329</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1535" spans="1:16">
       <c r="A1535" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1535" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C1535">
-        <v>0.7501020117313497</v>
+        <v>0.9861393060201933</v>
       </c>
       <c r="D1535" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E1535">
-        <v>0.9004788550683336</v>
+        <v>0.9392521639988605</v>
       </c>
       <c r="F1535">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1535">
-        <v>0.00790989798826865</v>
+        <v>0.007733860693979807</v>
       </c>
       <c r="H1535">
-        <v>0.007579521144931666</v>
+        <v>0.007360747836001141</v>
       </c>
       <c r="I1535">
-        <v>0.1503768433369839</v>
+        <v>0.04688714202133282</v>
       </c>
       <c r="J1535">
         <v>0.8584887262035132</v>
       </c>
       <c r="K1535">
-        <v>4.17</v>
+        <v>3.93</v>
       </c>
       <c r="L1535">
-        <v>4.33</v>
+        <v>4.36</v>
       </c>
       <c r="M1535">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="N1535">
-        <v>4.24</v>
+        <v>4.15</v>
       </c>
       <c r="O1535">
         <v>1</v>
       </c>
       <c r="P1535" t="s">
-        <v>329</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1536" spans="1:16">
       <c r="A1536" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1536" t="s">
         <v>331</v>
       </c>
       <c r="C1536">
-        <v>0.9861393060201933</v>
+        <v>0.989063742330369</v>
       </c>
       <c r="D1536" t="s">
         <v>503</v>
       </c>
       <c r="E1536">
-        <v>0.9420823894747903</v>
+        <v>0.9392521639988605</v>
       </c>
       <c r="F1536">
         <v>-1</v>
       </c>
       <c r="G1536">
-        <v>0.007733860693979807</v>
+        <v>0.007650936257669631</v>
       </c>
       <c r="H1536">
-        <v>0.00739791761052521</v>
+        <v>0.007360747836001141</v>
       </c>
       <c r="I1536">
-        <v>0.044056916545403</v>
+        <v>0.04981157833150851</v>
       </c>
       <c r="J1536">
         <v>0.8584887262035132</v>
       </c>
       <c r="K1536">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="L1536">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="M1536">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1536">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1536">
         <v>1</v>
       </c>
       <c r="P1536" t="s">
-        <v>329</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1537" spans="1:16">
       <c r="A1537" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1537" t="s">
         <v>332</v>
       </c>
       <c r="C1537">
-        <v>0.989063742330369</v>
+        <v>0.9978370512608956</v>
       </c>
       <c r="D1537" t="s">
         <v>503</v>
       </c>
       <c r="E1537">
-        <v>0.9420823894747903</v>
+        <v>0.9392521639988605</v>
       </c>
       <c r="F1537">
         <v>-1</v>
       </c>
       <c r="G1537">
-        <v>0.007650936257669631</v>
+        <v>0.007402162948739105</v>
       </c>
       <c r="H1537">
-        <v>0.00739791761052521</v>
+        <v>0.007360747836001141</v>
       </c>
       <c r="I1537">
-        <v>0.0469813528555787</v>
+        <v>0.05858488726203515</v>
       </c>
       <c r="J1537">
         <v>0.8584887262035132</v>
       </c>
       <c r="K1537">
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="L1537">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="M1537">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1537">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1537">
         <v>1</v>
       </c>
       <c r="P1537" t="s">
-        <v>329</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1538" spans="1:16">
       <c r="A1538" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1538" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1538">
+        <v>0.7858196111121254</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>504</v>
+      </c>
+      <c r="E1538">
+        <v>0.9907966175069367</v>
+      </c>
+      <c r="F1538">
+        <v>1</v>
+      </c>
+      <c r="G1538">
+        <v>0.007874180388887875</v>
+      </c>
+      <c r="H1538">
+        <v>0.007569203382493064</v>
+      </c>
+      <c r="I1538">
+        <v>0.2049770063948113</v>
+      </c>
+      <c r="J1538">
+        <v>0.8499233546493704</v>
+      </c>
+      <c r="K1538">
+        <v>4.17</v>
+      </c>
+      <c r="L1538">
+        <v>4.33</v>
+      </c>
+      <c r="M1538">
+        <v>3.87</v>
+      </c>
+      <c r="N1538">
+        <v>4.28</v>
+      </c>
+      <c r="O1538">
+        <v>1</v>
+      </c>
+      <c r="P1538" t="s">
         <v>333</v>
-      </c>
-      <c r="C1538">
-        <v>0.9978370512608956</v>
-      </c>
-      <c r="D1538" t="s">
-        <v>503</v>
-      </c>
-      <c r="E1538">
-        <v>0.9420823894747903</v>
-      </c>
-      <c r="F1538">
-        <v>-1</v>
-      </c>
-      <c r="G1538">
-        <v>0.007402162948739105</v>
-      </c>
-      <c r="H1538">
-        <v>0.00739791761052521</v>
-      </c>
-      <c r="I1538">
-        <v>0.05575466178610533</v>
-      </c>
-      <c r="J1538">
-        <v>0.8584887262035132</v>
-      </c>
-      <c r="K1538">
-        <v>3.73</v>
-      </c>
-      <c r="L1538">
-        <v>4.2</v>
-      </c>
-      <c r="M1538">
-        <v>3.76</v>
-      </c>
-      <c r="N1538">
-        <v>4.17</v>
-      </c>
-      <c r="O1538">
-        <v>1</v>
-      </c>
-      <c r="P1538" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="1539" spans="1:16">
       <c r="A1539" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1539" t="s">
         <v>335</v>
       </c>
       <c r="C1539">
-        <v>0.7858196111121254</v>
+        <v>0.8523280421006945</v>
       </c>
       <c r="D1539" t="s">
-        <v>504</v>
+        <v>326</v>
       </c>
       <c r="E1539">
-        <v>0.9907966175069367</v>
+        <v>1.023813479484075</v>
       </c>
       <c r="F1539">
         <v>1</v>
       </c>
       <c r="G1539">
-        <v>0.007874180388887875</v>
+        <v>0.008127671957899306</v>
       </c>
       <c r="H1539">
-        <v>0.007569203382493064</v>
+        <v>0.007976186520515925</v>
       </c>
       <c r="I1539">
-        <v>0.2049770063948113</v>
+        <v>0.1714854373833807</v>
       </c>
       <c r="J1539">
         <v>0.8499233546493704</v>
       </c>
       <c r="K1539">
-        <v>4.17</v>
+        <v>4.28</v>
       </c>
       <c r="L1539">
-        <v>4.33</v>
+        <v>4.49</v>
       </c>
       <c r="M1539">
-        <v>3.87</v>
+        <v>4.09</v>
       </c>
       <c r="N1539">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
       <c r="O1539">
         <v>1</v>
       </c>
       <c r="P1539" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1540" spans="1:16">
       <c r="A1540" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1540" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1540">
         <v>1.019801216227974</v>
@@ -79273,7 +79276,7 @@
         <v>503</v>
       </c>
       <c r="E1540">
-        <v>0.9742881865183675</v>
+        <v>0.9712866536113549</v>
       </c>
       <c r="F1540">
         <v>-1</v>
@@ -79282,10 +79285,10 @@
         <v>0.007700198783772027</v>
       </c>
       <c r="H1540">
-        <v>0.007365711813481632</v>
+        <v>0.007328713346388647</v>
       </c>
       <c r="I1540">
-        <v>0.04551302970960691</v>
+        <v>0.04851456261661946</v>
       </c>
       <c r="J1540">
         <v>0.8499233546493704</v>
@@ -79297,24 +79300,24 @@
         <v>4.36</v>
       </c>
       <c r="M1540">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1540">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1540">
         <v>1</v>
       </c>
       <c r="P1540" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1541" spans="1:16">
       <c r="A1541" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1541" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1541">
         <v>1.022297383960443</v>
@@ -79323,7 +79326,7 @@
         <v>503</v>
       </c>
       <c r="E1541">
-        <v>0.9742881865183675</v>
+        <v>0.9712866536113549</v>
       </c>
       <c r="F1541">
         <v>-1</v>
@@ -79332,10 +79335,10 @@
         <v>0.007617702616039558</v>
       </c>
       <c r="H1541">
-        <v>0.007365711813481632</v>
+        <v>0.007328713346388647</v>
       </c>
       <c r="I1541">
-        <v>0.04800919744207555</v>
+        <v>0.0510107303490881</v>
       </c>
       <c r="J1541">
         <v>0.8499233546493704</v>
@@ -79347,24 +79350,24 @@
         <v>4.32</v>
       </c>
       <c r="M1541">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1541">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1541">
         <v>1</v>
       </c>
       <c r="P1541" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1542" spans="1:16">
       <c r="A1542" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1542" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1542">
         <v>1.029785887157848</v>
@@ -79373,7 +79376,7 @@
         <v>503</v>
       </c>
       <c r="E1542">
-        <v>0.9742881865183675</v>
+        <v>0.9712866536113549</v>
       </c>
       <c r="F1542">
         <v>-1</v>
@@ -79382,10 +79385,10 @@
         <v>0.007370214112842152</v>
       </c>
       <c r="H1542">
-        <v>0.007365711813481632</v>
+        <v>0.007328713346388647</v>
       </c>
       <c r="I1542">
-        <v>0.05549770063948101</v>
+        <v>0.05849923354649356</v>
       </c>
       <c r="J1542">
         <v>0.8499233546493704</v>
@@ -79397,16 +79400,16 @@
         <v>4.2</v>
       </c>
       <c r="M1542">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1542">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1542">
         <v>1</v>
       </c>
       <c r="P1542" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1543" spans="1:16">
@@ -79414,16 +79417,16 @@
         <v>0</v>
       </c>
       <c r="B1543" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1543">
         <v>0.8176247120007583</v>
       </c>
       <c r="D1543" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E1543">
-        <v>1.020313581640992</v>
+        <v>0.7618180511086878</v>
       </c>
       <c r="F1543">
         <v>1</v>
@@ -79432,10 +79435,10 @@
         <v>0.007842375287999243</v>
       </c>
       <c r="H1543">
-        <v>0.007539686418359009</v>
+        <v>0.007938181948891312</v>
       </c>
       <c r="I1543">
-        <v>0.2026888696402334</v>
+        <v>-0.05580666089207043</v>
       </c>
       <c r="J1543">
         <v>0.8422962321341108</v>
@@ -79447,10 +79450,10 @@
         <v>4.33</v>
       </c>
       <c r="M1543">
-        <v>3.87</v>
+        <v>4.26</v>
       </c>
       <c r="N1543">
-        <v>4.28</v>
+        <v>4.35</v>
       </c>
       <c r="O1543">
         <v>1</v>
@@ -79464,43 +79467,43 @@
         <v>1</v>
       </c>
       <c r="B1544" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C1544">
-        <v>1.05189061931965</v>
+        <v>0.884972126466006</v>
       </c>
       <c r="D1544" t="s">
-        <v>503</v>
+        <v>326</v>
       </c>
       <c r="E1544">
-        <v>1.002966167175744</v>
+        <v>1.055008410571487</v>
       </c>
       <c r="F1544">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1544">
-        <v>0.007588109380680351</v>
+        <v>0.008095027873533995</v>
       </c>
       <c r="H1544">
-        <v>0.007337033832824255</v>
+        <v>0.007944991589428513</v>
       </c>
       <c r="I1544">
-        <v>0.04892445214390673</v>
+        <v>0.170036284105481</v>
       </c>
       <c r="J1544">
         <v>0.8422962321341108</v>
       </c>
       <c r="K1544">
-        <v>3.88</v>
+        <v>4.28</v>
       </c>
       <c r="L1544">
-        <v>4.32</v>
+        <v>4.49</v>
       </c>
       <c r="M1544">
-        <v>3.76</v>
+        <v>4.09</v>
       </c>
       <c r="N1544">
-        <v>4.17</v>
+        <v>4.5</v>
       </c>
       <c r="O1544">
         <v>1</v>
@@ -79514,43 +79517,43 @@
         <v>2</v>
       </c>
       <c r="B1545" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C1545">
-        <v>1.058235054139767</v>
+        <v>1.05189061931965</v>
       </c>
       <c r="D1545" t="s">
         <v>503</v>
       </c>
       <c r="E1545">
-        <v>1.002966167175744</v>
+        <v>0.9998120918184261</v>
       </c>
       <c r="F1545">
         <v>-1</v>
       </c>
       <c r="G1545">
-        <v>0.007341764945860234</v>
+        <v>0.007588109380680351</v>
       </c>
       <c r="H1545">
-        <v>0.007337033832824255</v>
+        <v>0.007300187908181575</v>
       </c>
       <c r="I1545">
-        <v>0.05526888696402343</v>
+        <v>0.05207852750122433</v>
       </c>
       <c r="J1545">
         <v>0.8422962321341108</v>
       </c>
       <c r="K1545">
-        <v>3.73</v>
+        <v>3.88</v>
       </c>
       <c r="L1545">
-        <v>4.2</v>
+        <v>4.32</v>
       </c>
       <c r="M1545">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1545">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1545">
         <v>1</v>
@@ -79561,152 +79564,152 @@
     </row>
     <row r="1546" spans="1:16">
       <c r="A1546" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1546" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C1546">
-        <v>0.9067366217034465</v>
+        <v>1.058235054139767</v>
       </c>
       <c r="D1546" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E1546">
-        <v>1.103014562588091</v>
+        <v>0.9998120918184261</v>
       </c>
       <c r="F1546">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1546">
-        <v>0.007753263378296554</v>
+        <v>0.007341764945860234</v>
       </c>
       <c r="H1546">
-        <v>0.00745698543741191</v>
+        <v>0.007300187908181575</v>
       </c>
       <c r="I1546">
-        <v>0.1962779408846442</v>
+        <v>0.05842296232134103</v>
       </c>
       <c r="J1546">
-        <v>0.8209264696154804</v>
+        <v>0.8422962321341108</v>
       </c>
       <c r="K1546">
-        <v>4.17</v>
+        <v>3.73</v>
       </c>
       <c r="L1546">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="M1546">
-        <v>3.87</v>
+        <v>3.74</v>
       </c>
       <c r="N1546">
-        <v>4.28</v>
+        <v>4.15</v>
       </c>
       <c r="O1546">
         <v>1</v>
       </c>
       <c r="P1546" t="s">
-        <v>628</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1547" spans="1:16">
       <c r="A1547" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1547" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C1547">
-        <v>1.137944268334258</v>
+        <v>0.9067366217034465</v>
       </c>
       <c r="D1547" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E1547">
-        <v>1.083316474245794</v>
+        <v>1.103014562588091</v>
       </c>
       <c r="F1547">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1547">
-        <v>0.007262055731665743</v>
+        <v>0.007753263378296554</v>
       </c>
       <c r="H1547">
-        <v>0.007256683525754207</v>
+        <v>0.00745698543741191</v>
       </c>
       <c r="I1547">
-        <v>0.0546277940884643</v>
+        <v>0.1962779408846442</v>
       </c>
       <c r="J1547">
         <v>0.8209264696154804</v>
       </c>
       <c r="K1547">
-        <v>3.73</v>
+        <v>4.17</v>
       </c>
       <c r="L1547">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="M1547">
-        <v>3.76</v>
+        <v>3.87</v>
       </c>
       <c r="N1547">
-        <v>4.17</v>
+        <v>4.28</v>
       </c>
       <c r="O1547">
         <v>1</v>
       </c>
       <c r="P1547" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1548" spans="1:16">
       <c r="A1548" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1548" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C1548">
-        <v>1.223191268191267</v>
+        <v>1.137944268334258</v>
       </c>
       <c r="D1548" t="s">
         <v>503</v>
       </c>
       <c r="E1548">
-        <v>1.153072552129155</v>
+        <v>1.079735003638103</v>
       </c>
       <c r="F1548">
         <v>-1</v>
       </c>
       <c r="G1548">
-        <v>0.007176808731808733</v>
+        <v>0.007262055731665743</v>
       </c>
       <c r="H1548">
-        <v>0.007186927447870846</v>
+        <v>0.007220264996361897</v>
       </c>
       <c r="I1548">
-        <v>0.07011871606211262</v>
+        <v>0.05820926469615451</v>
       </c>
       <c r="J1548">
-        <v>0.8023743212422461</v>
+        <v>0.8209264696154804</v>
       </c>
       <c r="K1548">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="L1548">
         <v>4.2</v>
       </c>
       <c r="M1548">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N1548">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O1548">
         <v>1</v>
       </c>
       <c r="P1548" t="s">
-        <v>335</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1549" spans="1:16">
@@ -79714,60 +79717,60 @@
         <v>0</v>
       </c>
       <c r="B1549" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1549">
-        <v>1.220809597068945</v>
+        <v>1.223191268191267</v>
       </c>
       <c r="D1549" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E1549">
-        <v>1.339583285164204</v>
+        <v>1.149120038554</v>
       </c>
       <c r="F1549">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1549">
-        <v>0.007299190402931055</v>
+        <v>0.007176808731808733</v>
       </c>
       <c r="H1549">
-        <v>0.007220416714835796</v>
+        <v>0.007150879961446001</v>
       </c>
       <c r="I1549">
-        <v>0.1187736880952595</v>
+        <v>0.07407122963726742</v>
       </c>
       <c r="J1549">
-        <v>0.7597976007327637</v>
+        <v>0.8023743212422461</v>
       </c>
       <c r="K1549">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="L1549">
-        <v>4.26</v>
+        <v>4.2</v>
       </c>
       <c r="M1549">
-        <v>3.87</v>
+        <v>3.74</v>
       </c>
       <c r="N1549">
-        <v>4.28</v>
+        <v>4.15</v>
       </c>
       <c r="O1549">
         <v>1</v>
       </c>
       <c r="P1549" t="s">
-        <v>629</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1550" spans="1:16">
       <c r="A1550" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1550" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1550">
-        <v>1.231593405127566</v>
+        <v>1.220809597068945</v>
       </c>
       <c r="D1550" t="s">
         <v>504</v>
@@ -79779,22 +79782,22 @@
         <v>1</v>
       </c>
       <c r="G1550">
-        <v>0.007188406594872434</v>
+        <v>0.007299190402931055</v>
       </c>
       <c r="H1550">
         <v>0.007220416714835796</v>
       </c>
       <c r="I1550">
-        <v>0.1079898800366381</v>
+        <v>0.1187736880952595</v>
       </c>
       <c r="J1550">
         <v>0.7597976007327637</v>
       </c>
       <c r="K1550">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="L1550">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="M1550">
         <v>3.87</v>
@@ -79806,45 +79809,45 @@
         <v>1</v>
       </c>
       <c r="P1550" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1551" spans="1:16">
       <c r="A1551" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1551" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C1551">
-        <v>1.316196053153717</v>
+        <v>1.231593405127566</v>
       </c>
       <c r="D1551" t="s">
         <v>504</v>
       </c>
       <c r="E1551">
-        <v>1.431869681426221</v>
+        <v>1.339583285164204</v>
       </c>
       <c r="F1551">
         <v>1</v>
       </c>
       <c r="G1551">
-        <v>0.007203803946846283</v>
+        <v>0.007188406594872434</v>
       </c>
       <c r="H1551">
-        <v>0.007128130318573779</v>
+        <v>0.007220416714835796</v>
       </c>
       <c r="I1551">
-        <v>0.1156736282725044</v>
+        <v>0.1079898800366381</v>
       </c>
       <c r="J1551">
-        <v>0.7359509867115708</v>
+        <v>0.7597976007327637</v>
       </c>
       <c r="K1551">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="L1551">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="M1551">
         <v>3.87</v>
@@ -79856,18 +79859,18 @@
         <v>1</v>
       </c>
       <c r="P1551" t="s">
-        <v>318</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1552" spans="1:16">
       <c r="A1552" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1552" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1552">
-        <v>1.325072132090642</v>
+        <v>1.316196053153717</v>
       </c>
       <c r="D1552" t="s">
         <v>504</v>
@@ -79879,22 +79882,22 @@
         <v>1</v>
       </c>
       <c r="G1552">
-        <v>0.007094927867909357</v>
+        <v>0.007203803946846283</v>
       </c>
       <c r="H1552">
         <v>0.007128130318573779</v>
       </c>
       <c r="I1552">
-        <v>0.1067975493355786</v>
+        <v>0.1156736282725044</v>
       </c>
       <c r="J1552">
         <v>0.7359509867115708</v>
       </c>
       <c r="K1552">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="L1552">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="M1552">
         <v>3.87</v>
@@ -79911,46 +79914,46 @@
     </row>
     <row r="1553" spans="1:16">
       <c r="A1553" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1553" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1553">
-        <v>1.333162915014097</v>
+        <v>1.325072132090642</v>
       </c>
       <c r="D1553" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E1553">
-        <v>1.442993602489295</v>
+        <v>1.431869681426221</v>
       </c>
       <c r="F1553">
         <v>1</v>
       </c>
       <c r="G1553">
-        <v>0.007426837084985903</v>
+        <v>0.007094927867909357</v>
       </c>
       <c r="H1553">
-        <v>0.007257006397510704</v>
+        <v>0.007128130318573779</v>
       </c>
       <c r="I1553">
-        <v>0.1098306874751978</v>
+        <v>0.1067975493355786</v>
       </c>
       <c r="J1553">
         <v>0.7359509867115708</v>
       </c>
       <c r="K1553">
-        <v>4.14</v>
+        <v>3.92</v>
       </c>
       <c r="L1553">
-        <v>4.38</v>
+        <v>4.21</v>
       </c>
       <c r="M1553">
-        <v>3.95</v>
+        <v>3.87</v>
       </c>
       <c r="N1553">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="O1553">
         <v>1</v>
@@ -79961,396 +79964,396 @@
     </row>
     <row r="1554" spans="1:16">
       <c r="A1554" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1554" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C1554">
-        <v>1.353204424653694</v>
+        <v>1.333162915014097</v>
       </c>
       <c r="D1554" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E1554">
-        <v>1.459643143726989</v>
+        <v>1.442993602489295</v>
       </c>
       <c r="F1554">
         <v>1</v>
       </c>
       <c r="G1554">
-        <v>0.007066795575346307</v>
+        <v>0.007426837084985903</v>
       </c>
       <c r="H1554">
-        <v>0.007100356856273011</v>
+        <v>0.007257006397510704</v>
       </c>
       <c r="I1554">
-        <v>0.1064387190732949</v>
+        <v>0.1098306874751978</v>
       </c>
       <c r="J1554">
-        <v>0.7287743814658945</v>
+        <v>0.7359509867115708</v>
       </c>
       <c r="K1554">
-        <v>3.92</v>
+        <v>4.14</v>
       </c>
       <c r="L1554">
-        <v>4.21</v>
+        <v>4.38</v>
       </c>
       <c r="M1554">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
       <c r="N1554">
-        <v>4.28</v>
+        <v>4.35</v>
       </c>
       <c r="O1554">
         <v>1</v>
       </c>
       <c r="P1554" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1555" spans="1:16">
       <c r="A1555" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1555" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1555">
-        <v>1.362874060731197</v>
+        <v>1.353204424653694</v>
       </c>
       <c r="D1555" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E1555">
-        <v>1.471341193209716</v>
+        <v>1.459643143726989</v>
       </c>
       <c r="F1555">
         <v>1</v>
       </c>
       <c r="G1555">
-        <v>0.007397125939268803</v>
+        <v>0.007066795575346307</v>
       </c>
       <c r="H1555">
-        <v>0.007228658806790283</v>
+        <v>0.007100356856273011</v>
       </c>
       <c r="I1555">
-        <v>0.1084671324785194</v>
+        <v>0.1064387190732949</v>
       </c>
       <c r="J1555">
         <v>0.7287743814658945</v>
       </c>
       <c r="K1555">
-        <v>4.14</v>
+        <v>3.92</v>
       </c>
       <c r="L1555">
-        <v>4.38</v>
+        <v>4.21</v>
       </c>
       <c r="M1555">
-        <v>3.95</v>
+        <v>3.87</v>
       </c>
       <c r="N1555">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="O1555">
         <v>1</v>
       </c>
       <c r="P1555" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1556" spans="1:16">
       <c r="A1556" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1556" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C1556">
-        <v>1.258262210428172</v>
+        <v>1.362874060731197</v>
       </c>
       <c r="D1556" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E1556">
-        <v>1.365911927131895</v>
+        <v>1.471341193209716</v>
       </c>
       <c r="F1556">
         <v>1</v>
       </c>
       <c r="G1556">
-        <v>0.007161737789571827</v>
+        <v>0.007397125939268803</v>
       </c>
       <c r="H1556">
-        <v>0.007194088072868105</v>
+        <v>0.007228658806790283</v>
       </c>
       <c r="I1556">
-        <v>0.1076497167037225</v>
+        <v>0.1084671324785194</v>
       </c>
       <c r="J1556">
-        <v>0.7529943340744458</v>
+        <v>0.7287743814658945</v>
       </c>
       <c r="K1556">
-        <v>3.92</v>
+        <v>4.14</v>
       </c>
       <c r="L1556">
-        <v>4.21</v>
+        <v>4.38</v>
       </c>
       <c r="M1556">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
       <c r="N1556">
-        <v>4.28</v>
+        <v>4.35</v>
       </c>
       <c r="O1556">
         <v>1</v>
       </c>
       <c r="P1556" t="s">
-        <v>630</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1557" spans="1:16">
       <c r="A1557" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1557" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C1557">
-        <v>1.260253173635517</v>
+        <v>1.258262210428172</v>
       </c>
       <c r="D1557" t="s">
-        <v>325</v>
+        <v>504</v>
       </c>
       <c r="E1557">
-        <v>1.367663343613283</v>
+        <v>1.365911927131895</v>
       </c>
       <c r="F1557">
         <v>1</v>
       </c>
       <c r="G1557">
-        <v>0.007419746826364483</v>
+        <v>0.007161737789571827</v>
       </c>
       <c r="H1557">
-        <v>0.007572336656386717</v>
+        <v>0.007194088072868105</v>
       </c>
       <c r="I1557">
-        <v>0.1074101699777663</v>
+        <v>0.1076497167037225</v>
       </c>
       <c r="J1557">
         <v>0.7529943340744458</v>
       </c>
       <c r="K1557">
-        <v>4.09</v>
+        <v>3.92</v>
       </c>
       <c r="L1557">
-        <v>4.34</v>
+        <v>4.21</v>
       </c>
       <c r="M1557">
-        <v>4.12</v>
+        <v>3.87</v>
       </c>
       <c r="N1557">
-        <v>4.47</v>
+        <v>4.28</v>
       </c>
       <c r="O1557">
         <v>1</v>
       </c>
       <c r="P1557" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1558" spans="1:16">
       <c r="A1558" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1558" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1558">
-        <v>1.267184250161372</v>
+        <v>1.260253173635517</v>
       </c>
       <c r="D1558" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1558">
-        <v>1.420253173635517</v>
+        <v>1.367663343613283</v>
       </c>
       <c r="F1558">
         <v>1</v>
       </c>
       <c r="G1558">
-        <v>0.007712815749838628</v>
+        <v>0.007419746826364483</v>
       </c>
       <c r="H1558">
-        <v>0.007579746826364483</v>
+        <v>0.007572336656386717</v>
       </c>
       <c r="I1558">
-        <v>0.1530689234741449</v>
+        <v>0.1074101699777663</v>
       </c>
       <c r="J1558">
         <v>0.7529943340744458</v>
       </c>
       <c r="K1558">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="L1558">
-        <v>4.49</v>
+        <v>4.34</v>
       </c>
       <c r="M1558">
-        <v>4.09</v>
+        <v>4.12</v>
       </c>
       <c r="N1558">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="O1558">
         <v>1</v>
       </c>
       <c r="P1558" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1559" spans="1:16">
       <c r="A1559" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1559" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C1559">
-        <v>1.262603456931795</v>
+        <v>1.267184250161372</v>
       </c>
       <c r="D1559" t="s">
-        <v>505</v>
+        <v>326</v>
       </c>
       <c r="E1559">
-        <v>1.375672380405939</v>
+        <v>1.420253173635517</v>
       </c>
       <c r="F1559">
         <v>1</v>
       </c>
       <c r="G1559">
-        <v>0.007497396543068206</v>
+        <v>0.007712815749838628</v>
       </c>
       <c r="H1559">
-        <v>0.007324327619594061</v>
+        <v>0.007579746826364483</v>
       </c>
       <c r="I1559">
-        <v>0.113068923474144</v>
+        <v>0.1530689234741449</v>
       </c>
       <c r="J1559">
         <v>0.7529943340744458</v>
       </c>
       <c r="K1559">
-        <v>4.14</v>
+        <v>4.28</v>
       </c>
       <c r="L1559">
-        <v>4.38</v>
+        <v>4.49</v>
       </c>
       <c r="M1559">
-        <v>3.95</v>
+        <v>4.09</v>
       </c>
       <c r="N1559">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="O1559">
         <v>1</v>
       </c>
       <c r="P1559" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1560" spans="1:16">
       <c r="A1560" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1560" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C1560">
-        <v>1.253790770941436</v>
+        <v>1.262603456931795</v>
       </c>
       <c r="D1560" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E1560">
-        <v>1.361497521312081</v>
+        <v>1.375672380405939</v>
       </c>
       <c r="F1560">
         <v>1</v>
       </c>
       <c r="G1560">
-        <v>0.007166209229058564</v>
+        <v>0.007497396543068206</v>
       </c>
       <c r="H1560">
-        <v>0.007198502478687919</v>
+        <v>0.007324327619594061</v>
       </c>
       <c r="I1560">
-        <v>0.107706750370645</v>
+        <v>0.113068923474144</v>
       </c>
       <c r="J1560">
-        <v>0.7541350074128989</v>
+        <v>0.7529943340744458</v>
       </c>
       <c r="K1560">
-        <v>3.92</v>
+        <v>4.14</v>
       </c>
       <c r="L1560">
-        <v>4.21</v>
+        <v>4.38</v>
       </c>
       <c r="M1560">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
       <c r="N1560">
-        <v>4.28</v>
+        <v>4.35</v>
       </c>
       <c r="O1560">
         <v>1</v>
       </c>
       <c r="P1560" t="s">
-        <v>497</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1561" spans="1:16">
       <c r="A1561" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1561" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C1561">
-        <v>1.255587819681244</v>
+        <v>1.253790770941436</v>
       </c>
       <c r="D1561" t="s">
-        <v>325</v>
+        <v>504</v>
       </c>
       <c r="E1561">
-        <v>1.362963769458856</v>
+        <v>1.361497521312081</v>
       </c>
       <c r="F1561">
         <v>1</v>
       </c>
       <c r="G1561">
-        <v>0.007424412180318756</v>
+        <v>0.007166209229058564</v>
       </c>
       <c r="H1561">
-        <v>0.007577036230541143</v>
+        <v>0.007198502478687919</v>
       </c>
       <c r="I1561">
-        <v>0.1073759497776128</v>
+        <v>0.107706750370645</v>
       </c>
       <c r="J1561">
         <v>0.7541350074128989</v>
       </c>
       <c r="K1561">
-        <v>4.09</v>
+        <v>3.92</v>
       </c>
       <c r="L1561">
-        <v>4.34</v>
+        <v>4.21</v>
       </c>
       <c r="M1561">
-        <v>4.12</v>
+        <v>3.87</v>
       </c>
       <c r="N1561">
-        <v>4.47</v>
+        <v>4.28</v>
       </c>
       <c r="O1561">
         <v>1</v>
@@ -80361,46 +80364,46 @@
     </row>
     <row r="1562" spans="1:16">
       <c r="A1562" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1562" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1562">
-        <v>1.262302168272793</v>
+        <v>1.255587819681244</v>
       </c>
       <c r="D1562" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1562">
-        <v>1.415587819681244</v>
+        <v>1.362963769458856</v>
       </c>
       <c r="F1562">
         <v>1</v>
       </c>
       <c r="G1562">
-        <v>0.007717697831727208</v>
+        <v>0.007424412180318756</v>
       </c>
       <c r="H1562">
-        <v>0.007584412180318756</v>
+        <v>0.007577036230541143</v>
       </c>
       <c r="I1562">
-        <v>0.1532856514084506</v>
+        <v>0.1073759497776128</v>
       </c>
       <c r="J1562">
         <v>0.7541350074128989</v>
       </c>
       <c r="K1562">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="L1562">
-        <v>4.49</v>
+        <v>4.34</v>
       </c>
       <c r="M1562">
-        <v>4.09</v>
+        <v>4.12</v>
       </c>
       <c r="N1562">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="O1562">
         <v>1</v>
@@ -80411,46 +80414,46 @@
     </row>
     <row r="1563" spans="1:16">
       <c r="A1563" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1563" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C1563">
-        <v>1.257881069310599</v>
+        <v>1.262302168272793</v>
       </c>
       <c r="D1563" t="s">
-        <v>505</v>
+        <v>326</v>
       </c>
       <c r="E1563">
-        <v>1.371166720719049</v>
+        <v>1.415587819681244</v>
       </c>
       <c r="F1563">
         <v>1</v>
       </c>
       <c r="G1563">
-        <v>0.007502118930689401</v>
+        <v>0.007717697831727208</v>
       </c>
       <c r="H1563">
-        <v>0.00732883327928095</v>
+        <v>0.007584412180318756</v>
       </c>
       <c r="I1563">
-        <v>0.1132856514084501</v>
+        <v>0.1532856514084506</v>
       </c>
       <c r="J1563">
         <v>0.7541350074128989</v>
       </c>
       <c r="K1563">
-        <v>4.14</v>
+        <v>4.28</v>
       </c>
       <c r="L1563">
-        <v>4.38</v>
+        <v>4.49</v>
       </c>
       <c r="M1563">
-        <v>3.95</v>
+        <v>4.09</v>
       </c>
       <c r="N1563">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="O1563">
         <v>1</v>
@@ -80461,96 +80464,96 @@
     </row>
     <row r="1564" spans="1:16">
       <c r="A1564" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1564" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1564">
-        <v>1.306852608188463</v>
+        <v>1.257881069310599</v>
       </c>
       <c r="D1564" t="s">
-        <v>325</v>
+        <v>506</v>
       </c>
       <c r="E1564">
-        <v>1.41460458330965</v>
+        <v>1.371166720719049</v>
       </c>
       <c r="F1564">
         <v>1</v>
       </c>
       <c r="G1564">
-        <v>0.007373147391811536</v>
+        <v>0.007502118930689401</v>
       </c>
       <c r="H1564">
-        <v>0.00752539541669035</v>
+        <v>0.00732883327928095</v>
       </c>
       <c r="I1564">
-        <v>0.1077519751211864</v>
+        <v>0.1132856514084501</v>
       </c>
       <c r="J1564">
-        <v>0.7416008292937742</v>
+        <v>0.7541350074128989</v>
       </c>
       <c r="K1564">
-        <v>4.09</v>
+        <v>4.14</v>
       </c>
       <c r="L1564">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="M1564">
-        <v>4.12</v>
+        <v>3.95</v>
       </c>
       <c r="N1564">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="O1564">
         <v>1</v>
       </c>
       <c r="P1564" t="s">
-        <v>337</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1565" spans="1:16">
       <c r="A1565" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1565" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1565">
-        <v>1.315948450622646</v>
+        <v>1.306852608188463</v>
       </c>
       <c r="D1565" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1565">
-        <v>1.466852608188463</v>
+        <v>1.41460458330965</v>
       </c>
       <c r="F1565">
         <v>1</v>
       </c>
       <c r="G1565">
-        <v>0.007664051549377354</v>
+        <v>0.007373147391811536</v>
       </c>
       <c r="H1565">
-        <v>0.007533147391811537</v>
+        <v>0.00752539541669035</v>
       </c>
       <c r="I1565">
-        <v>0.150904157565817</v>
+        <v>0.1077519751211864</v>
       </c>
       <c r="J1565">
         <v>0.7416008292937742</v>
       </c>
       <c r="K1565">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="L1565">
-        <v>4.49</v>
+        <v>4.34</v>
       </c>
       <c r="M1565">
-        <v>4.09</v>
+        <v>4.12</v>
       </c>
       <c r="N1565">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="O1565">
         <v>1</v>
@@ -80561,46 +80564,46 @@
     </row>
     <row r="1566" spans="1:16">
       <c r="A1566" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1566" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C1566">
-        <v>1.309772566723775</v>
+        <v>1.315948450622646</v>
       </c>
       <c r="D1566" t="s">
-        <v>505</v>
+        <v>326</v>
       </c>
       <c r="E1566">
-        <v>1.420676724289591</v>
+        <v>1.466852608188463</v>
       </c>
       <c r="F1566">
         <v>1</v>
       </c>
       <c r="G1566">
-        <v>0.007450227433276226</v>
+        <v>0.007664051549377354</v>
       </c>
       <c r="H1566">
-        <v>0.007279323275710408</v>
+        <v>0.007533147391811537</v>
       </c>
       <c r="I1566">
-        <v>0.1109041575658165</v>
+        <v>0.150904157565817</v>
       </c>
       <c r="J1566">
         <v>0.7416008292937742</v>
       </c>
       <c r="K1566">
-        <v>4.14</v>
+        <v>4.28</v>
       </c>
       <c r="L1566">
-        <v>4.38</v>
+        <v>4.49</v>
       </c>
       <c r="M1566">
-        <v>3.95</v>
+        <v>4.09</v>
       </c>
       <c r="N1566">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="O1566">
         <v>1</v>
@@ -80611,184 +80614,184 @@
     </row>
     <row r="1567" spans="1:16">
       <c r="A1567" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1567" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1567">
-        <v>1.408539208982712</v>
+        <v>1.309772566723775</v>
       </c>
       <c r="D1567" t="s">
-        <v>325</v>
+        <v>506</v>
       </c>
       <c r="E1567">
-        <v>1.517037051591386</v>
+        <v>1.420676724289591</v>
       </c>
       <c r="F1567">
         <v>1</v>
       </c>
       <c r="G1567">
-        <v>0.007271460791017289</v>
+        <v>0.007450227433276226</v>
       </c>
       <c r="H1567">
-        <v>0.007422962948408613</v>
+        <v>0.007279323275710408</v>
       </c>
       <c r="I1567">
-        <v>0.1084978426086747</v>
+        <v>0.1109041575658165</v>
       </c>
       <c r="J1567">
-        <v>0.7167385797108284</v>
+        <v>0.7416008292937742</v>
       </c>
       <c r="K1567">
-        <v>4.09</v>
+        <v>4.14</v>
       </c>
       <c r="L1567">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="M1567">
-        <v>4.12</v>
+        <v>3.95</v>
       </c>
       <c r="N1567">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="O1567">
         <v>1</v>
       </c>
       <c r="P1567" t="s">
-        <v>631</v>
+        <v>337</v>
       </c>
     </row>
     <row r="1568" spans="1:16">
       <c r="A1568" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1568" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1568">
-        <v>1.422358878837654</v>
+        <v>1.408539208982712</v>
       </c>
       <c r="D1568" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1568">
-        <v>1.568539208982712</v>
+        <v>1.517037051591386</v>
       </c>
       <c r="F1568">
         <v>1</v>
       </c>
       <c r="G1568">
-        <v>0.007557641121162346</v>
+        <v>0.007271460791017289</v>
       </c>
       <c r="H1568">
-        <v>0.007431460791017289</v>
+        <v>0.007422962948408613</v>
       </c>
       <c r="I1568">
-        <v>0.1461803301450577</v>
+        <v>0.1084978426086747</v>
       </c>
       <c r="J1568">
         <v>0.7167385797108284</v>
       </c>
       <c r="K1568">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="L1568">
-        <v>4.49</v>
+        <v>4.34</v>
       </c>
       <c r="M1568">
-        <v>4.09</v>
+        <v>4.12</v>
       </c>
       <c r="N1568">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="O1568">
         <v>1</v>
       </c>
       <c r="P1568" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1569" spans="1:16">
       <c r="A1569" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1569" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C1569">
-        <v>1.41270227999717</v>
+        <v>1.422358878837654</v>
       </c>
       <c r="D1569" t="s">
-        <v>505</v>
+        <v>326</v>
       </c>
       <c r="E1569">
-        <v>1.518882610142227</v>
+        <v>1.568539208982712</v>
       </c>
       <c r="F1569">
         <v>1</v>
       </c>
       <c r="G1569">
-        <v>0.00734729772000283</v>
+        <v>0.007557641121162346</v>
       </c>
       <c r="H1569">
-        <v>0.007181117389857773</v>
+        <v>0.007431460791017289</v>
       </c>
       <c r="I1569">
-        <v>0.1061803301450568</v>
+        <v>0.1461803301450577</v>
       </c>
       <c r="J1569">
         <v>0.7167385797108284</v>
       </c>
       <c r="K1569">
-        <v>4.14</v>
+        <v>4.28</v>
       </c>
       <c r="L1569">
-        <v>4.38</v>
+        <v>4.49</v>
       </c>
       <c r="M1569">
-        <v>3.95</v>
+        <v>4.09</v>
       </c>
       <c r="N1569">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="O1569">
         <v>1</v>
       </c>
       <c r="P1569" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1570" spans="1:16">
       <c r="A1570" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1570" t="s">
         <v>339</v>
       </c>
       <c r="C1570">
-        <v>1.562216207610253</v>
+        <v>1.41270227999717</v>
       </c>
       <c r="D1570" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1570">
-        <v>1.661534787454226</v>
+        <v>1.518882610142227</v>
       </c>
       <c r="F1570">
         <v>1</v>
       </c>
       <c r="G1570">
-        <v>0.007197783792389746</v>
+        <v>0.00734729772000283</v>
       </c>
       <c r="H1570">
-        <v>0.007038465212545773</v>
+        <v>0.007181117389857773</v>
       </c>
       <c r="I1570">
-        <v>0.09931857984397308</v>
+        <v>0.1061803301450568</v>
       </c>
       <c r="J1570">
-        <v>0.6806241044419679</v>
+        <v>0.7167385797108284</v>
       </c>
       <c r="K1570">
         <v>4.14</v>
@@ -80806,7 +80809,7 @@
         <v>1</v>
       </c>
       <c r="P1570" t="s">
-        <v>338</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1571" spans="1:16">
@@ -80817,28 +80820,28 @@
         <v>339</v>
       </c>
       <c r="C1571">
-        <v>1.5951239916343</v>
+        <v>1.562216207610253</v>
       </c>
       <c r="D1571" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1571">
-        <v>1.692932310858812</v>
+        <v>1.661534787454226</v>
       </c>
       <c r="F1571">
         <v>1</v>
       </c>
       <c r="G1571">
-        <v>0.0071648760083657</v>
+        <v>0.007197783792389746</v>
       </c>
       <c r="H1571">
-        <v>0.007007067689141188</v>
+        <v>0.007038465212545773</v>
       </c>
       <c r="I1571">
-        <v>0.09780831922451183</v>
+        <v>0.09931857984397308</v>
       </c>
       <c r="J1571">
-        <v>0.6726753643395411</v>
+        <v>0.6806241044419679</v>
       </c>
       <c r="K1571">
         <v>4.14</v>
@@ -80856,7 +80859,7 @@
         <v>1</v>
       </c>
       <c r="P1571" t="s">
-        <v>632</v>
+        <v>338</v>
       </c>
     </row>
     <row r="1572" spans="1:16">
@@ -80864,93 +80867,93 @@
         <v>0</v>
       </c>
       <c r="B1572" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C1572">
-        <v>1.683865067419008</v>
+        <v>1.5951239916343</v>
       </c>
       <c r="D1572" t="s">
         <v>506</v>
       </c>
       <c r="E1572">
-        <v>1.770384812401001</v>
+        <v>1.692932310858812</v>
       </c>
       <c r="F1572">
         <v>1</v>
       </c>
       <c r="G1572">
-        <v>0.007056134932580992</v>
+        <v>0.0071648760083657</v>
       </c>
       <c r="H1572">
-        <v>0.007129615187598999</v>
+        <v>0.007007067689141188</v>
       </c>
       <c r="I1572">
-        <v>0.08651974498199255</v>
+        <v>0.09780831922451183</v>
       </c>
       <c r="J1572">
-        <v>0.6519744981992699</v>
+        <v>0.6726753643395411</v>
       </c>
       <c r="K1572">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="L1572">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="M1572">
-        <v>4.11</v>
+        <v>3.95</v>
       </c>
       <c r="N1572">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="O1572">
         <v>1</v>
       </c>
       <c r="P1572" t="s">
-        <v>502</v>
+        <v>633</v>
       </c>
     </row>
     <row r="1573" spans="1:16">
       <c r="A1573" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1573" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C1573">
-        <v>1.680825577455023</v>
+        <v>1.683865067419008</v>
       </c>
       <c r="D1573" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E1573">
-        <v>1.774700732112883</v>
+        <v>1.770384812401001</v>
       </c>
       <c r="F1573">
         <v>1</v>
       </c>
       <c r="G1573">
-        <v>0.007079174422544977</v>
+        <v>0.007056134932580992</v>
       </c>
       <c r="H1573">
-        <v>0.006925299267887116</v>
+        <v>0.007129615187598999</v>
       </c>
       <c r="I1573">
-        <v>0.09387515465786045</v>
+        <v>0.08651974498199255</v>
       </c>
       <c r="J1573">
         <v>0.6519744981992699</v>
       </c>
       <c r="K1573">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
       <c r="L1573">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="M1573">
-        <v>3.95</v>
+        <v>4.11</v>
       </c>
       <c r="N1573">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="O1573">
         <v>1</v>
@@ -80961,196 +80964,196 @@
     </row>
     <row r="1574" spans="1:16">
       <c r="A1574" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1574" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C1574">
-        <v>1.779646446828338</v>
+        <v>1.680825577455023</v>
       </c>
       <c r="D1574" t="s">
         <v>506</v>
       </c>
       <c r="E1574">
-        <v>1.865933712734094</v>
+        <v>1.774700732112883</v>
       </c>
       <c r="F1574">
         <v>1</v>
       </c>
       <c r="G1574">
-        <v>0.006960353553171663</v>
+        <v>0.007079174422544977</v>
       </c>
       <c r="H1574">
-        <v>0.007034066287265907</v>
+        <v>0.006925299267887116</v>
       </c>
       <c r="I1574">
-        <v>0.08628726590575608</v>
+        <v>0.09387515465786045</v>
       </c>
       <c r="J1574">
-        <v>0.6287265905756462</v>
+        <v>0.6519744981992699</v>
       </c>
       <c r="K1574">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="L1574">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="M1574">
-        <v>4.11</v>
+        <v>3.95</v>
       </c>
       <c r="N1574">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="O1574">
         <v>1</v>
       </c>
       <c r="P1574" t="s">
-        <v>633</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1575" spans="1:16">
       <c r="A1575" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1575" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C1575">
-        <v>1.777071915016825</v>
+        <v>1.779646446828338</v>
       </c>
       <c r="D1575" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E1575">
-        <v>1.866529967226197</v>
+        <v>1.865933712734094</v>
       </c>
       <c r="F1575">
         <v>1</v>
       </c>
       <c r="G1575">
-        <v>0.006982928084983175</v>
+        <v>0.006960353553171663</v>
       </c>
       <c r="H1575">
-        <v>0.006833470032773801</v>
+        <v>0.007034066287265907</v>
       </c>
       <c r="I1575">
-        <v>0.08945805220937242</v>
+        <v>0.08628726590575608</v>
       </c>
       <c r="J1575">
         <v>0.6287265905756462</v>
       </c>
       <c r="K1575">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
       <c r="L1575">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="M1575">
-        <v>3.95</v>
+        <v>4.11</v>
       </c>
       <c r="N1575">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="O1575">
         <v>1</v>
       </c>
       <c r="P1575" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1576" spans="1:16">
       <c r="A1576" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1576" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C1576">
-        <v>1.868042962334746</v>
+        <v>1.777071915016825</v>
       </c>
       <c r="D1576" t="s">
         <v>506</v>
       </c>
       <c r="E1576">
-        <v>1.954115673591215</v>
+        <v>1.866529967226197</v>
       </c>
       <c r="F1576">
         <v>1</v>
       </c>
       <c r="G1576">
-        <v>0.006871957037665254</v>
+        <v>0.006982928084983175</v>
       </c>
       <c r="H1576">
-        <v>0.006945884326408786</v>
+        <v>0.006833470032773801</v>
       </c>
       <c r="I1576">
-        <v>0.08607271125646898</v>
+        <v>0.08945805220937242</v>
       </c>
       <c r="J1576">
-        <v>0.6072711256469063</v>
+        <v>0.6287265905756462</v>
       </c>
       <c r="K1576">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="L1576">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="M1576">
-        <v>4.11</v>
+        <v>3.95</v>
       </c>
       <c r="N1576">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="O1576">
         <v>1</v>
       </c>
       <c r="P1576" t="s">
-        <v>504</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1577" spans="1:16">
       <c r="A1577" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1577" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C1577">
-        <v>1.865897539821808</v>
+        <v>1.868042962334746</v>
       </c>
       <c r="D1577" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E1577">
-        <v>1.951279053694719</v>
+        <v>1.954115673591215</v>
       </c>
       <c r="F1577">
         <v>1</v>
       </c>
       <c r="G1577">
-        <v>0.006894102460178192</v>
+        <v>0.006871957037665254</v>
       </c>
       <c r="H1577">
-        <v>0.00674872094630528</v>
+        <v>0.006945884326408786</v>
       </c>
       <c r="I1577">
-        <v>0.08538151387291126</v>
+        <v>0.08607271125646898</v>
       </c>
       <c r="J1577">
         <v>0.6072711256469063</v>
       </c>
       <c r="K1577">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
       <c r="L1577">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="M1577">
-        <v>3.95</v>
+        <v>4.11</v>
       </c>
       <c r="N1577">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="O1577">
         <v>1</v>
@@ -81161,34 +81164,34 @@
     </row>
     <row r="1578" spans="1:16">
       <c r="A1578" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1578" t="s">
         <v>339</v>
       </c>
       <c r="C1578">
-        <v>1.972978808405616</v>
+        <v>1.865897539821808</v>
       </c>
       <c r="D1578" t="s">
-        <v>331</v>
+        <v>506</v>
       </c>
       <c r="E1578">
-        <v>2.075074086240114</v>
+        <v>1.951279053694719</v>
       </c>
       <c r="F1578">
         <v>1</v>
       </c>
       <c r="G1578">
-        <v>0.006787021191594384</v>
+        <v>0.006894102460178192</v>
       </c>
       <c r="H1578">
-        <v>0.006644925913759887</v>
+        <v>0.00674872094630528</v>
       </c>
       <c r="I1578">
-        <v>0.1020952778344979</v>
+        <v>0.08538151387291126</v>
       </c>
       <c r="J1578">
-        <v>0.5814060849261797</v>
+        <v>0.6072711256469063</v>
       </c>
       <c r="K1578">
         <v>4.14</v>
@@ -81197,16 +81200,16 @@
         <v>4.38</v>
       </c>
       <c r="M1578">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="N1578">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="O1578">
         <v>1</v>
       </c>
       <c r="P1578" t="s">
-        <v>634</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1579" spans="1:16">
@@ -81214,43 +81217,43 @@
         <v>0</v>
       </c>
       <c r="B1579" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C1579">
-        <v>2.174905286579624</v>
+        <v>1.972978808405616</v>
       </c>
       <c r="D1579" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E1579">
-        <v>2.260734841179192</v>
+        <v>2.05344596454159</v>
       </c>
       <c r="F1579">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1579">
-        <v>0.007025094713420376</v>
+        <v>0.006787021191594384</v>
       </c>
       <c r="H1579">
-        <v>0.007099265158820809</v>
+        <v>0.006646554035458409</v>
       </c>
       <c r="I1579">
-        <v>-0.08582955459956798</v>
+        <v>0.08046715613597355</v>
       </c>
       <c r="J1579">
-        <v>0.5829554599568211</v>
+        <v>0.5814060849261797</v>
       </c>
       <c r="K1579">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="L1579">
-        <v>4.6</v>
+        <v>4.38</v>
       </c>
       <c r="M1579">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="N1579">
-        <v>4.68</v>
+        <v>4.35</v>
       </c>
       <c r="O1579">
         <v>1</v>
@@ -81264,43 +81267,43 @@
         <v>1</v>
       </c>
       <c r="B1580" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C1580">
-        <v>1.966564395778761</v>
+        <v>1.983913120677564</v>
       </c>
       <c r="D1580" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="E1580">
-        <v>2.068985042369694</v>
+        <v>1.975541242376088</v>
       </c>
       <c r="F1580">
         <v>1</v>
       </c>
       <c r="G1580">
-        <v>0.006793435604221239</v>
+        <v>0.006356086879322436</v>
       </c>
       <c r="H1580">
-        <v>0.006651014957630308</v>
+        <v>0.006324458757623913</v>
       </c>
       <c r="I1580">
-        <v>0.1024206465909328</v>
+        <v>-0.008371878301476343</v>
       </c>
       <c r="J1580">
-        <v>0.5829554599568211</v>
+        <v>0.5814060849261797</v>
       </c>
       <c r="K1580">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="L1580">
-        <v>4.38</v>
+        <v>4.17</v>
       </c>
       <c r="M1580">
-        <v>3.93</v>
+        <v>3.74</v>
       </c>
       <c r="N1580">
-        <v>4.36</v>
+        <v>4.15</v>
       </c>
       <c r="O1580">
         <v>1</v>
@@ -81314,49 +81317,49 @@
         <v>0</v>
       </c>
       <c r="B1581" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C1581">
-        <v>2.154108704131823</v>
+        <v>1.966564395778761</v>
       </c>
       <c r="D1581" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E1581">
-        <v>2.239988250516121</v>
+        <v>2.047325933170556</v>
       </c>
       <c r="F1581">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1581">
-        <v>0.007045891295868177</v>
+        <v>0.006793435604221239</v>
       </c>
       <c r="H1581">
-        <v>0.007120011749483879</v>
+        <v>0.006652674066829443</v>
       </c>
       <c r="I1581">
-        <v>-0.08587954638429807</v>
+        <v>0.08076153739179537</v>
       </c>
       <c r="J1581">
-        <v>0.5879546384298503</v>
+        <v>0.5829554599568211</v>
       </c>
       <c r="K1581">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="L1581">
-        <v>4.6</v>
+        <v>4.38</v>
       </c>
       <c r="M1581">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="N1581">
-        <v>4.68</v>
+        <v>4.35</v>
       </c>
       <c r="O1581">
         <v>1</v>
       </c>
       <c r="P1581" t="s">
-        <v>506</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1582" spans="1:16">
@@ -81364,49 +81367,49 @@
         <v>1</v>
       </c>
       <c r="B1582" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C1582">
-        <v>1.94586779690042</v>
+        <v>1.978087470562353</v>
       </c>
       <c r="D1582" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="E1582">
-        <v>2.049338270970689</v>
+        <v>1.969746579761489</v>
       </c>
       <c r="F1582">
         <v>1</v>
       </c>
       <c r="G1582">
-        <v>0.006814132203099581</v>
+        <v>0.006361912529437647</v>
       </c>
       <c r="H1582">
-        <v>0.006670661729029312</v>
+        <v>0.006330253420238512</v>
       </c>
       <c r="I1582">
-        <v>0.103470474070269</v>
+        <v>-0.008340890800863754</v>
       </c>
       <c r="J1582">
-        <v>0.5879546384298503</v>
+        <v>0.5829554599568211</v>
       </c>
       <c r="K1582">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="L1582">
-        <v>4.38</v>
+        <v>4.17</v>
       </c>
       <c r="M1582">
-        <v>3.93</v>
+        <v>3.74</v>
       </c>
       <c r="N1582">
-        <v>4.36</v>
+        <v>4.15</v>
       </c>
       <c r="O1582">
         <v>1</v>
       </c>
       <c r="P1582" t="s">
-        <v>506</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1583" spans="1:16">
@@ -81414,49 +81417,49 @@
         <v>0</v>
       </c>
       <c r="B1583" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C1583">
-        <v>2.44227668850461</v>
+        <v>1.94586779690042</v>
       </c>
       <c r="D1583" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E1583">
-        <v>2.527463523388013</v>
+        <v>2.027579178202091</v>
       </c>
       <c r="F1583">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1583">
-        <v>0.006757723311495389</v>
+        <v>0.006814132203099581</v>
       </c>
       <c r="H1583">
-        <v>0.006832536476611987</v>
+        <v>0.006672420821797908</v>
       </c>
       <c r="I1583">
-        <v>-0.08518683488340217</v>
+        <v>0.08171138130167099</v>
       </c>
       <c r="J1583">
-        <v>0.5186834883402378</v>
+        <v>0.5879546384298503</v>
       </c>
       <c r="K1583">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="L1583">
-        <v>4.6</v>
+        <v>4.38</v>
       </c>
       <c r="M1583">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="N1583">
-        <v>4.68</v>
+        <v>4.35</v>
       </c>
       <c r="O1583">
         <v>1</v>
       </c>
       <c r="P1583" t="s">
-        <v>636</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1584" spans="1:16">
@@ -81464,143 +81467,143 @@
         <v>1</v>
       </c>
       <c r="B1584" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C1584">
-        <v>2.232650358271416</v>
+        <v>1.959290559503763</v>
       </c>
       <c r="D1584" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="E1584">
-        <v>2.321573890822866</v>
+        <v>1.95104965227236</v>
       </c>
       <c r="F1584">
         <v>1</v>
       </c>
       <c r="G1584">
-        <v>0.006527349641728584</v>
+        <v>0.006380709440496237</v>
       </c>
       <c r="H1584">
-        <v>0.006398426109177136</v>
+        <v>0.006348950347727641</v>
       </c>
       <c r="I1584">
-        <v>0.08892353255144991</v>
+        <v>-0.008240907231403138</v>
       </c>
       <c r="J1584">
-        <v>0.5186834883402378</v>
+        <v>0.5879546384298503</v>
       </c>
       <c r="K1584">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="L1584">
-        <v>4.38</v>
+        <v>4.17</v>
       </c>
       <c r="M1584">
-        <v>3.93</v>
+        <v>3.74</v>
       </c>
       <c r="N1584">
-        <v>4.36</v>
+        <v>4.15</v>
       </c>
       <c r="O1584">
         <v>1</v>
       </c>
       <c r="P1584" t="s">
-        <v>636</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1585" spans="1:16">
       <c r="A1585" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1585" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1585">
-        <v>2.224563248957303</v>
+        <v>2.44227668850461</v>
       </c>
       <c r="D1585" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E1585">
-        <v>2.219750083840706</v>
+        <v>2.527463523388013</v>
       </c>
       <c r="F1585">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1585">
-        <v>0.006135436751042697</v>
+        <v>0.006757723311495389</v>
       </c>
       <c r="H1585">
-        <v>0.006120249916159294</v>
+        <v>0.006832536476611987</v>
       </c>
       <c r="I1585">
-        <v>-0.00481316511659724</v>
+        <v>-0.08518683488340217</v>
       </c>
       <c r="J1585">
         <v>0.5186834883402378</v>
       </c>
       <c r="K1585">
-        <v>3.77</v>
+        <v>4.16</v>
       </c>
       <c r="L1585">
-        <v>4.18</v>
+        <v>4.6</v>
       </c>
       <c r="M1585">
-        <v>3.76</v>
+        <v>4.15</v>
       </c>
       <c r="N1585">
-        <v>4.17</v>
+        <v>4.68</v>
       </c>
       <c r="O1585">
         <v>1</v>
       </c>
       <c r="P1585" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1586" spans="1:16">
       <c r="A1586" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1586" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C1586">
-        <v>2.44504454372776</v>
+        <v>2.232650358271416</v>
       </c>
       <c r="D1586" t="s">
-        <v>499</v>
+        <v>330</v>
       </c>
       <c r="E1586">
-        <v>2.53022472511303</v>
+        <v>2.321573890822866</v>
       </c>
       <c r="F1586">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1586">
-        <v>0.00675495545627224</v>
+        <v>0.006527349641728584</v>
       </c>
       <c r="H1586">
-        <v>0.00682977527488697</v>
+        <v>0.006398426109177136</v>
       </c>
       <c r="I1586">
-        <v>-0.08518018138526973</v>
+        <v>0.08892353255144991</v>
       </c>
       <c r="J1586">
-        <v>0.5180181385269806</v>
+        <v>0.5186834883402378</v>
       </c>
       <c r="K1586">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="L1586">
-        <v>4.6</v>
+        <v>4.38</v>
       </c>
       <c r="M1586">
-        <v>4.15</v>
+        <v>3.93</v>
       </c>
       <c r="N1586">
-        <v>4.68</v>
+        <v>4.36</v>
       </c>
       <c r="O1586">
         <v>1</v>
@@ -81611,46 +81614,46 @@
     </row>
     <row r="1587" spans="1:16">
       <c r="A1587" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1587" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C1587">
-        <v>2.2354049064983</v>
+        <v>2.224563248957303</v>
       </c>
       <c r="D1587" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="E1587">
-        <v>2.324188715588966</v>
+        <v>2.210123753607511</v>
       </c>
       <c r="F1587">
         <v>1</v>
       </c>
       <c r="G1587">
-        <v>0.0065245950935017</v>
+        <v>0.006135436751042697</v>
       </c>
       <c r="H1587">
-        <v>0.006395811284411034</v>
+        <v>0.00608987624639249</v>
       </c>
       <c r="I1587">
-        <v>0.08878380909066586</v>
+        <v>-0.01443949534979216</v>
       </c>
       <c r="J1587">
-        <v>0.5180181385269806</v>
+        <v>0.5186834883402378</v>
       </c>
       <c r="K1587">
-        <v>4.14</v>
+        <v>3.77</v>
       </c>
       <c r="L1587">
-        <v>4.38</v>
+        <v>4.18</v>
       </c>
       <c r="M1587">
-        <v>3.93</v>
+        <v>3.74</v>
       </c>
       <c r="N1587">
-        <v>4.36</v>
+        <v>4.15</v>
       </c>
       <c r="O1587">
         <v>1</v>
@@ -81661,96 +81664,96 @@
     </row>
     <row r="1588" spans="1:16">
       <c r="A1588" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1588" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1588">
-        <v>2.227071617753283</v>
+        <v>2.44504454372776</v>
       </c>
       <c r="D1588" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E1588">
-        <v>2.222251799138553</v>
+        <v>2.53022472511303</v>
       </c>
       <c r="F1588">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1588">
-        <v>0.006132928382246717</v>
+        <v>0.00675495545627224</v>
       </c>
       <c r="H1588">
-        <v>0.006117748200861447</v>
+        <v>0.00682977527488697</v>
       </c>
       <c r="I1588">
-        <v>-0.004819818614730131</v>
+        <v>-0.08518018138526973</v>
       </c>
       <c r="J1588">
         <v>0.5180181385269806</v>
       </c>
       <c r="K1588">
-        <v>3.77</v>
+        <v>4.16</v>
       </c>
       <c r="L1588">
-        <v>4.18</v>
+        <v>4.6</v>
       </c>
       <c r="M1588">
-        <v>3.76</v>
+        <v>4.15</v>
       </c>
       <c r="N1588">
-        <v>4.17</v>
+        <v>4.68</v>
       </c>
       <c r="O1588">
         <v>1</v>
       </c>
       <c r="P1588" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1589" spans="1:16">
       <c r="A1589" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1589" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C1589">
-        <v>2.279708059639244</v>
+        <v>2.227071617753283</v>
       </c>
       <c r="D1589" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E1589">
-        <v>2.365285684495881</v>
+        <v>2.212612161909092</v>
       </c>
       <c r="F1589">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1589">
-        <v>0.006920291940360756</v>
+        <v>0.006132928382246717</v>
       </c>
       <c r="H1589">
-        <v>0.006994714315504119</v>
+        <v>0.006087387838090909</v>
       </c>
       <c r="I1589">
-        <v>-0.08557762485663645</v>
+        <v>-0.01445945584419039</v>
       </c>
       <c r="J1589">
-        <v>0.5577624856636431</v>
+        <v>0.5180181385269806</v>
       </c>
       <c r="K1589">
-        <v>4.16</v>
+        <v>3.77</v>
       </c>
       <c r="L1589">
-        <v>4.6</v>
+        <v>4.18</v>
       </c>
       <c r="M1589">
+        <v>3.74</v>
+      </c>
+      <c r="N1589">
         <v>4.15</v>
-      </c>
-      <c r="N1589">
-        <v>4.68</v>
       </c>
       <c r="O1589">
         <v>1</v>
@@ -81761,346 +81764,346 @@
     </row>
     <row r="1590" spans="1:16">
       <c r="A1590" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1590" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C1590">
-        <v>2.070863309352518</v>
+        <v>2.279708059639244</v>
       </c>
       <c r="D1590" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
       <c r="E1590">
-        <v>2.167993431341883</v>
+        <v>2.365285684495881</v>
       </c>
       <c r="F1590">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1590">
-        <v>0.006689136690647482</v>
+        <v>0.006920291940360756</v>
       </c>
       <c r="H1590">
-        <v>0.006552006568658118</v>
+        <v>0.006994714315504119</v>
       </c>
       <c r="I1590">
-        <v>0.09713012198936521</v>
+        <v>-0.08557762485663645</v>
       </c>
       <c r="J1590">
         <v>0.5577624856636431</v>
       </c>
       <c r="K1590">
-        <v>4.14</v>
+        <v>4.16</v>
       </c>
       <c r="L1590">
-        <v>4.38</v>
+        <v>4.6</v>
       </c>
       <c r="M1590">
-        <v>3.93</v>
+        <v>4.15</v>
       </c>
       <c r="N1590">
-        <v>4.36</v>
+        <v>4.68</v>
       </c>
       <c r="O1590">
         <v>1</v>
       </c>
       <c r="P1590" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1591" spans="1:16">
       <c r="A1591" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1591" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C1591">
-        <v>2.077235429048065</v>
+        <v>2.070863309352518</v>
       </c>
       <c r="D1591" t="s">
-        <v>503</v>
+        <v>330</v>
       </c>
       <c r="E1591">
-        <v>2.072813053904702</v>
+        <v>2.167993431341883</v>
       </c>
       <c r="F1591">
         <v>1</v>
       </c>
       <c r="G1591">
-        <v>0.006282764570951934</v>
+        <v>0.006689136690647482</v>
       </c>
       <c r="H1591">
-        <v>0.006267186946095298</v>
+        <v>0.006552006568658118</v>
       </c>
       <c r="I1591">
-        <v>-0.004422375143363411</v>
+        <v>0.09713012198936521</v>
       </c>
       <c r="J1591">
         <v>0.5577624856636431</v>
       </c>
       <c r="K1591">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="L1591">
-        <v>4.18</v>
+        <v>4.38</v>
       </c>
       <c r="M1591">
-        <v>3.76</v>
+        <v>3.93</v>
       </c>
       <c r="N1591">
-        <v>4.17</v>
+        <v>4.36</v>
       </c>
       <c r="O1591">
         <v>1</v>
       </c>
       <c r="P1591" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1592" spans="1:16">
       <c r="A1592" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1592" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C1592">
-        <v>2.127903395737093</v>
+        <v>2.077235429048065</v>
       </c>
       <c r="D1592" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E1592">
-        <v>2.213845935651186</v>
+        <v>2.063968303617975</v>
       </c>
       <c r="F1592">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1592">
-        <v>0.007072096604262907</v>
+        <v>0.006282764570951934</v>
       </c>
       <c r="H1592">
-        <v>0.007146154064348814</v>
+        <v>0.006236031696382025</v>
       </c>
       <c r="I1592">
-        <v>-0.08594253991409317</v>
+        <v>-0.01326712543009023</v>
       </c>
       <c r="J1592">
-        <v>0.5942539914093525</v>
+        <v>0.5577624856636431</v>
       </c>
       <c r="K1592">
-        <v>4.16</v>
+        <v>3.77</v>
       </c>
       <c r="L1592">
-        <v>4.6</v>
+        <v>4.18</v>
       </c>
       <c r="M1592">
+        <v>3.74</v>
+      </c>
+      <c r="N1592">
         <v>4.15</v>
       </c>
-      <c r="N1592">
-        <v>4.68</v>
-      </c>
       <c r="O1592">
         <v>1</v>
       </c>
       <c r="P1592" t="s">
-        <v>341</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1593" spans="1:16">
       <c r="A1593" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1593" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C1593">
-        <v>1.919788475565281</v>
+        <v>2.127903395737093</v>
       </c>
       <c r="D1593" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
       <c r="E1593">
-        <v>2.024581813761245</v>
+        <v>2.213845935651186</v>
       </c>
       <c r="F1593">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1593">
-        <v>0.00684021152443472</v>
+        <v>0.007072096604262907</v>
       </c>
       <c r="H1593">
-        <v>0.006695418186238756</v>
+        <v>0.007146154064348814</v>
       </c>
       <c r="I1593">
-        <v>0.104793338195964</v>
+        <v>-0.08594253991409317</v>
       </c>
       <c r="J1593">
         <v>0.5942539914093525</v>
       </c>
       <c r="K1593">
-        <v>4.14</v>
+        <v>4.16</v>
       </c>
       <c r="L1593">
-        <v>4.38</v>
+        <v>4.6</v>
       </c>
       <c r="M1593">
-        <v>3.93</v>
+        <v>4.15</v>
       </c>
       <c r="N1593">
-        <v>4.36</v>
+        <v>4.68</v>
       </c>
       <c r="O1593">
         <v>1</v>
       </c>
       <c r="P1593" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1594" spans="1:16">
       <c r="A1594" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1594" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C1594">
-        <v>2.102759880757764</v>
+        <v>1.919788475565281</v>
       </c>
       <c r="D1594" t="s">
-        <v>507</v>
+        <v>330</v>
       </c>
       <c r="E1594">
-        <v>2.196756899701894</v>
+        <v>2.024581813761245</v>
       </c>
       <c r="F1594">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1594">
-        <v>0.007097240119242235</v>
+        <v>0.00684021152443472</v>
       </c>
       <c r="H1594">
-        <v>0.007203243100298106</v>
+        <v>0.006695418186238756</v>
       </c>
       <c r="I1594">
-        <v>-0.09399701894413015</v>
+        <v>0.104793338195964</v>
       </c>
       <c r="J1594">
-        <v>0.6002981055870757</v>
+        <v>0.5942539914093525</v>
       </c>
       <c r="K1594">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="L1594">
-        <v>4.6</v>
+        <v>4.38</v>
       </c>
       <c r="M1594">
-        <v>4.17</v>
+        <v>3.93</v>
       </c>
       <c r="N1594">
-        <v>4.7</v>
+        <v>4.36</v>
       </c>
       <c r="O1594">
         <v>1</v>
       </c>
       <c r="P1594" t="s">
-        <v>639</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1595" spans="1:16">
       <c r="A1595" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1595" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C1595">
-        <v>1.894765842869507</v>
+        <v>2.102759880757764</v>
       </c>
       <c r="D1595" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
       <c r="E1595">
-        <v>2.000828445042793</v>
+        <v>2.188762861813635</v>
       </c>
       <c r="F1595">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1595">
-        <v>0.006865234157130493</v>
+        <v>0.007097240119242235</v>
       </c>
       <c r="H1595">
-        <v>0.006719171554957208</v>
+        <v>0.007171237138186365</v>
       </c>
       <c r="I1595">
-        <v>0.106062602173286</v>
+        <v>-0.0860029810558709</v>
       </c>
       <c r="J1595">
         <v>0.6002981055870757</v>
       </c>
       <c r="K1595">
-        <v>4.14</v>
+        <v>4.16</v>
       </c>
       <c r="L1595">
-        <v>4.38</v>
+        <v>4.6</v>
       </c>
       <c r="M1595">
-        <v>3.93</v>
+        <v>4.15</v>
       </c>
       <c r="N1595">
-        <v>4.36</v>
+        <v>4.68</v>
       </c>
       <c r="O1595">
         <v>1</v>
       </c>
       <c r="P1595" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1596" spans="1:16">
       <c r="A1596" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1596" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C1596">
-        <v>1.189714280323221</v>
+        <v>1.894765842869507</v>
       </c>
       <c r="D1596" t="s">
-        <v>505</v>
+        <v>330</v>
       </c>
       <c r="E1596">
-        <v>1.275390700548607</v>
+        <v>2.000828445042793</v>
       </c>
       <c r="F1596">
         <v>1</v>
       </c>
       <c r="G1596">
-        <v>0.007650285719676779</v>
+        <v>0.006865234157130493</v>
       </c>
       <c r="H1596">
-        <v>0.007424609299451392</v>
+        <v>0.006719171554957208</v>
       </c>
       <c r="I1596">
-        <v>0.0856764202253868</v>
+        <v>0.106062602173286</v>
       </c>
       <c r="J1596">
-        <v>0.7783821011269347</v>
+        <v>0.6002981055870757</v>
       </c>
       <c r="K1596">
-        <v>4.15</v>
+        <v>4.14</v>
       </c>
       <c r="L1596">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="M1596">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="N1596">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="O1596">
         <v>1</v>
@@ -82111,46 +82114,46 @@
     </row>
     <row r="1597" spans="1:16">
       <c r="A1597" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1597" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C1597">
-        <v>1.300958342571147</v>
+        <v>1.912879122992595</v>
       </c>
       <c r="D1597" t="s">
-        <v>346</v>
+        <v>503</v>
       </c>
       <c r="E1597">
-        <v>1.248742163582416</v>
+        <v>1.904885085104337</v>
       </c>
       <c r="F1597">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1597">
-        <v>0.007419041657428855</v>
+        <v>0.006427120877007404</v>
       </c>
       <c r="H1597">
-        <v>0.007351257836417584</v>
+        <v>0.006395114914895664</v>
       </c>
       <c r="I1597">
-        <v>0.05221617898873099</v>
+        <v>-0.007994037888258365</v>
       </c>
       <c r="J1597">
-        <v>0.7783821011269347</v>
+        <v>0.6002981055870757</v>
       </c>
       <c r="K1597">
-        <v>3.93</v>
+        <v>3.76</v>
       </c>
       <c r="L1597">
-        <v>4.36</v>
+        <v>4.17</v>
       </c>
       <c r="M1597">
-        <v>3.92</v>
+        <v>3.74</v>
       </c>
       <c r="N1597">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="O1597">
         <v>1</v>
@@ -82161,96 +82164,96 @@
     </row>
     <row r="1598" spans="1:16">
       <c r="A1598" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1598" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C1598">
-        <v>1.312202404819072</v>
+        <v>1.189714280323221</v>
       </c>
       <c r="D1598" t="s">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="E1598">
-        <v>1.245499478751456</v>
+        <v>1.275390700548607</v>
       </c>
       <c r="F1598">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1598">
-        <v>0.007087797595180929</v>
+        <v>0.007650285719676779</v>
       </c>
       <c r="H1598">
-        <v>0.007114500521248544</v>
+        <v>0.007424609299451392</v>
       </c>
       <c r="I1598">
-        <v>0.06670292606761619</v>
+        <v>0.0856764202253868</v>
       </c>
       <c r="J1598">
         <v>0.7783821011269347</v>
       </c>
       <c r="K1598">
-        <v>3.71</v>
+        <v>4.15</v>
       </c>
       <c r="L1598">
-        <v>4.2</v>
+        <v>4.42</v>
       </c>
       <c r="M1598">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="N1598">
-        <v>4.18</v>
+        <v>4.35</v>
       </c>
       <c r="O1598">
         <v>1</v>
       </c>
       <c r="P1598" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1599" spans="1:16">
       <c r="A1599" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1599" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C1599">
-        <v>1.133017762669554</v>
+        <v>1.300958342571147</v>
       </c>
       <c r="D1599" t="s">
-        <v>505</v>
+        <v>346</v>
       </c>
       <c r="E1599">
-        <v>1.221426545191504</v>
+        <v>1.248742163582416</v>
       </c>
       <c r="F1599">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1599">
-        <v>0.007706982237330445</v>
+        <v>0.007419041657428855</v>
       </c>
       <c r="H1599">
-        <v>0.007478573454808496</v>
+        <v>0.007351257836417584</v>
       </c>
       <c r="I1599">
-        <v>0.08840878252194928</v>
+        <v>0.05221617898873099</v>
       </c>
       <c r="J1599">
-        <v>0.7920439126097458</v>
+        <v>0.7783821011269347</v>
       </c>
       <c r="K1599">
-        <v>4.15</v>
+        <v>3.93</v>
       </c>
       <c r="L1599">
-        <v>4.42</v>
+        <v>4.36</v>
       </c>
       <c r="M1599">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="N1599">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="O1599">
         <v>1</v>
@@ -82261,34 +82264,34 @@
     </row>
     <row r="1600" spans="1:16">
       <c r="A1600" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1600" t="s">
         <v>336</v>
       </c>
       <c r="C1600">
-        <v>1.261517084217843</v>
+        <v>1.312202404819072</v>
       </c>
       <c r="D1600" t="s">
         <v>344</v>
       </c>
       <c r="E1600">
-        <v>1.193994449461258</v>
+        <v>1.245499478751456</v>
       </c>
       <c r="F1600">
         <v>-1</v>
       </c>
       <c r="G1600">
-        <v>0.007138482915782157</v>
+        <v>0.007087797595180929</v>
       </c>
       <c r="H1600">
-        <v>0.007166005550538742</v>
+        <v>0.007114500521248544</v>
       </c>
       <c r="I1600">
-        <v>0.06752263475658538</v>
+        <v>0.06670292606761619</v>
       </c>
       <c r="J1600">
-        <v>0.7920439126097458</v>
+        <v>0.7783821011269347</v>
       </c>
       <c r="K1600">
         <v>3.71</v>
@@ -82317,28 +82320,28 @@
         <v>345</v>
       </c>
       <c r="C1601">
-        <v>0.9482795698924753</v>
+        <v>1.133017762669554</v>
       </c>
       <c r="D1601" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1601">
-        <v>1.045591397849464</v>
+        <v>1.221426545191504</v>
       </c>
       <c r="F1601">
         <v>1</v>
       </c>
       <c r="G1601">
-        <v>0.007891720430107524</v>
+        <v>0.007706982237330445</v>
       </c>
       <c r="H1601">
-        <v>0.007654408602150536</v>
+        <v>0.007478573454808496</v>
       </c>
       <c r="I1601">
-        <v>0.09731182795698867</v>
+        <v>0.08840878252194928</v>
       </c>
       <c r="J1601">
-        <v>0.8365591397849457</v>
+        <v>0.7920439126097458</v>
       </c>
       <c r="K1601">
         <v>4.15</v>
@@ -82364,43 +82367,43 @@
         <v>1</v>
       </c>
       <c r="B1602" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C1602">
-        <v>1.096365591397852</v>
+        <v>1.247267423443699</v>
       </c>
       <c r="D1602" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E1602">
-        <v>1.026172043010754</v>
+        <v>1.195187862569796</v>
       </c>
       <c r="F1602">
         <v>-1</v>
       </c>
       <c r="G1602">
-        <v>0.007303634408602148</v>
+        <v>0.007472732576556302</v>
       </c>
       <c r="H1602">
-        <v>0.007333827956989245</v>
+        <v>0.007404812137430204</v>
       </c>
       <c r="I1602">
-        <v>0.07019354838709724</v>
+        <v>0.05207956087390286</v>
       </c>
       <c r="J1602">
-        <v>0.8365591397849457</v>
+        <v>0.7920439126097458</v>
       </c>
       <c r="K1602">
-        <v>3.71</v>
+        <v>3.93</v>
       </c>
       <c r="L1602">
-        <v>4.2</v>
+        <v>4.36</v>
       </c>
       <c r="M1602">
-        <v>3.77</v>
+        <v>3.92</v>
       </c>
       <c r="N1602">
-        <v>4.18</v>
+        <v>4.3</v>
       </c>
       <c r="O1602">
         <v>1</v>
@@ -82411,96 +82414,96 @@
     </row>
     <row r="1603" spans="1:16">
       <c r="A1603" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1603" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C1603">
-        <v>0.7718387076132496</v>
+        <v>1.261517084217843</v>
       </c>
       <c r="D1603" t="s">
-        <v>505</v>
+        <v>344</v>
       </c>
       <c r="E1603">
-        <v>0.8776537096559842</v>
+        <v>1.193994449461258</v>
       </c>
       <c r="F1603">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1603">
-        <v>0.008068161292386751</v>
+        <v>0.007138482915782157</v>
       </c>
       <c r="H1603">
-        <v>0.007822346290344015</v>
+        <v>0.007166005550538742</v>
       </c>
       <c r="I1603">
-        <v>0.1058150020427346</v>
+        <v>0.06752263475658538</v>
       </c>
       <c r="J1603">
-        <v>0.8790750102136747</v>
+        <v>0.7920439126097458</v>
       </c>
       <c r="K1603">
-        <v>4.15</v>
+        <v>3.71</v>
       </c>
       <c r="L1603">
-        <v>4.42</v>
+        <v>4.2</v>
       </c>
       <c r="M1603">
-        <v>3.95</v>
+        <v>3.77</v>
       </c>
       <c r="N1603">
-        <v>4.35</v>
+        <v>4.18</v>
       </c>
       <c r="O1603">
         <v>1</v>
       </c>
       <c r="P1603" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1604" spans="1:16">
       <c r="A1604" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1604" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C1604">
-        <v>0.9386317121072669</v>
+        <v>0.9482795698924753</v>
       </c>
       <c r="D1604" t="s">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="E1604">
-        <v>0.8658872114944458</v>
+        <v>1.045591397849464</v>
       </c>
       <c r="F1604">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1604">
-        <v>0.007461368287892734</v>
+        <v>0.007891720430107524</v>
       </c>
       <c r="H1604">
-        <v>0.007494112788505554</v>
+        <v>0.007654408602150536</v>
       </c>
       <c r="I1604">
-        <v>0.07274450061282112</v>
+        <v>0.09731182795698867</v>
       </c>
       <c r="J1604">
-        <v>0.8790750102136747</v>
+        <v>0.8365591397849457</v>
       </c>
       <c r="K1604">
-        <v>3.71</v>
+        <v>4.15</v>
       </c>
       <c r="L1604">
-        <v>4.2</v>
+        <v>4.42</v>
       </c>
       <c r="M1604">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="N1604">
-        <v>4.18</v>
+        <v>4.35</v>
       </c>
       <c r="O1604">
         <v>1</v>
@@ -82511,34 +82514,34 @@
     </row>
     <row r="1605" spans="1:16">
       <c r="A1605" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1605" t="s">
         <v>336</v>
       </c>
       <c r="C1605">
-        <v>0.9845510084020948</v>
+        <v>1.096365591397852</v>
       </c>
       <c r="D1605" t="s">
         <v>344</v>
       </c>
       <c r="E1605">
-        <v>0.9125491379180311</v>
+        <v>1.026172043010754</v>
       </c>
       <c r="F1605">
         <v>-1</v>
       </c>
       <c r="G1605">
-        <v>0.007415448991597906</v>
+        <v>0.007303634408602148</v>
       </c>
       <c r="H1605">
-        <v>0.007447450862081969</v>
+        <v>0.007333827956989245</v>
       </c>
       <c r="I1605">
-        <v>0.0720018704840637</v>
+        <v>0.07019354838709724</v>
       </c>
       <c r="J1605">
-        <v>0.8666978414010527</v>
+        <v>0.8365591397849457</v>
       </c>
       <c r="K1605">
         <v>3.71</v>
@@ -82556,7 +82559,7 @@
         <v>1</v>
       </c>
       <c r="P1605" t="s">
-        <v>345</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1606" spans="1:16">
@@ -82564,43 +82567,43 @@
         <v>0</v>
       </c>
       <c r="B1606" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C1606">
-        <v>1.067750097393944</v>
+        <v>0.7718387076132496</v>
       </c>
       <c r="D1606" t="s">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="E1606">
-        <v>0.9970937647372415</v>
+        <v>0.8776537096559842</v>
       </c>
       <c r="F1606">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1606">
-        <v>0.007332249902606057</v>
+        <v>0.008068161292386751</v>
       </c>
       <c r="H1606">
-        <v>0.007362906235262758</v>
+        <v>0.007822346290344015</v>
       </c>
       <c r="I1606">
-        <v>0.07065633265670224</v>
+        <v>0.1058150020427346</v>
       </c>
       <c r="J1606">
-        <v>0.8442722109450287</v>
+        <v>0.8790750102136747</v>
       </c>
       <c r="K1606">
-        <v>3.71</v>
+        <v>4.15</v>
       </c>
       <c r="L1606">
-        <v>4.2</v>
+        <v>4.42</v>
       </c>
       <c r="M1606">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="N1606">
-        <v>4.18</v>
+        <v>4.35</v>
       </c>
       <c r="O1606">
         <v>1</v>
@@ -82611,34 +82614,34 @@
     </row>
     <row r="1607" spans="1:16">
       <c r="A1607" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1607" t="s">
         <v>336</v>
       </c>
       <c r="C1607">
-        <v>1.146898928660411</v>
+        <v>0.9386317121072669</v>
       </c>
       <c r="D1607" t="s">
         <v>344</v>
       </c>
       <c r="E1607">
-        <v>1.077522631010713</v>
+        <v>0.8658872114944458</v>
       </c>
       <c r="F1607">
         <v>-1</v>
       </c>
       <c r="G1607">
-        <v>0.007253101071339589</v>
+        <v>0.007461368287892734</v>
       </c>
       <c r="H1607">
-        <v>0.007282477368989286</v>
+        <v>0.007494112788505554</v>
       </c>
       <c r="I1607">
-        <v>0.06937629764969744</v>
+        <v>0.07274450061282112</v>
       </c>
       <c r="J1607">
-        <v>0.8229382941616145</v>
+        <v>0.8790750102136747</v>
       </c>
       <c r="K1607">
         <v>3.71</v>
@@ -82656,7 +82659,7 @@
         <v>1</v>
       </c>
       <c r="P1607" t="s">
-        <v>339</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1608" spans="1:16">
@@ -82664,81 +82667,81 @@
         <v>0</v>
       </c>
       <c r="B1608" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C1608">
-        <v>1.224978989183211</v>
+        <v>0.9845510084020948</v>
       </c>
       <c r="D1608" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E1608">
-        <v>1.276356754599709</v>
+        <v>0.9125491379180311</v>
       </c>
       <c r="F1608">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1608">
-        <v>0.00737502101081679</v>
+        <v>0.007415448991597906</v>
       </c>
       <c r="H1608">
-        <v>0.007363643245400292</v>
+        <v>0.007447450862081969</v>
       </c>
       <c r="I1608">
-        <v>0.05137776541649819</v>
+        <v>0.0720018704840637</v>
       </c>
       <c r="J1608">
-        <v>0.7844441354124463</v>
+        <v>0.8666978414010527</v>
       </c>
       <c r="K1608">
-        <v>3.92</v>
+        <v>3.71</v>
       </c>
       <c r="L1608">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M1608">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="N1608">
-        <v>4.32</v>
+        <v>4.18</v>
       </c>
       <c r="O1608">
         <v>1</v>
       </c>
       <c r="P1608" t="s">
-        <v>505</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1609" spans="1:16">
       <c r="A1609" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1609" t="s">
         <v>336</v>
       </c>
       <c r="C1609">
-        <v>1.289712257619824</v>
+        <v>1.067750097393944</v>
       </c>
       <c r="D1609" t="s">
         <v>344</v>
       </c>
       <c r="E1609">
-        <v>1.222645609495077</v>
+        <v>0.9970937647372415</v>
       </c>
       <c r="F1609">
         <v>-1</v>
       </c>
       <c r="G1609">
-        <v>0.007110287742380176</v>
+        <v>0.007332249902606057</v>
       </c>
       <c r="H1609">
-        <v>0.007137354390504923</v>
+        <v>0.007362906235262758</v>
       </c>
       <c r="I1609">
-        <v>0.06706664812474727</v>
+        <v>0.07065633265670224</v>
       </c>
       <c r="J1609">
-        <v>0.7844441354124463</v>
+        <v>0.8442722109450287</v>
       </c>
       <c r="K1609">
         <v>3.71</v>
@@ -82756,7 +82759,7 @@
         <v>1</v>
       </c>
       <c r="P1609" t="s">
-        <v>505</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1610" spans="1:16">
@@ -82764,99 +82767,249 @@
         <v>0</v>
       </c>
       <c r="B1610" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C1610">
-        <v>1.460337972166996</v>
+        <v>1.146898928660411</v>
       </c>
       <c r="D1610" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E1610">
-        <v>1.50931411530815</v>
+        <v>1.077522631010713</v>
       </c>
       <c r="F1610">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1610">
-        <v>0.007139662027833004</v>
+        <v>0.007253101071339589</v>
       </c>
       <c r="H1610">
-        <v>0.007130685884691851</v>
+        <v>0.007282477368989286</v>
       </c>
       <c r="I1610">
-        <v>0.04897614314115373</v>
+        <v>0.06937629764969744</v>
       </c>
       <c r="J1610">
-        <v>0.7244035785288275</v>
+        <v>0.8229382941616145</v>
       </c>
       <c r="K1610">
-        <v>3.92</v>
+        <v>3.71</v>
       </c>
       <c r="L1610">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M1610">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="N1610">
-        <v>4.32</v>
+        <v>4.18</v>
       </c>
       <c r="O1610">
         <v>1</v>
       </c>
       <c r="P1610" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1611" spans="1:16">
       <c r="A1611" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1611" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1611">
+        <v>1.224978989183211</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1611">
+        <v>1.276356754599709</v>
+      </c>
+      <c r="F1611">
+        <v>1</v>
+      </c>
+      <c r="G1611">
+        <v>0.00737502101081679</v>
+      </c>
+      <c r="H1611">
+        <v>0.007363643245400292</v>
+      </c>
+      <c r="I1611">
+        <v>0.05137776541649819</v>
+      </c>
+      <c r="J1611">
+        <v>0.7844441354124463</v>
+      </c>
+      <c r="K1611">
+        <v>3.92</v>
+      </c>
+      <c r="L1611">
+        <v>4.3</v>
+      </c>
+      <c r="M1611">
+        <v>3.88</v>
+      </c>
+      <c r="N1611">
+        <v>4.32</v>
+      </c>
+      <c r="O1611">
+        <v>1</v>
+      </c>
+      <c r="P1611" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:16">
+      <c r="A1612" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1612" t="s">
         <v>336</v>
       </c>
-      <c r="C1611">
+      <c r="C1612">
+        <v>1.289712257619824</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1612">
+        <v>1.222645609495077</v>
+      </c>
+      <c r="F1612">
+        <v>-1</v>
+      </c>
+      <c r="G1612">
+        <v>0.007110287742380176</v>
+      </c>
+      <c r="H1612">
+        <v>0.007137354390504923</v>
+      </c>
+      <c r="I1612">
+        <v>0.06706664812474727</v>
+      </c>
+      <c r="J1612">
+        <v>0.7844441354124463</v>
+      </c>
+      <c r="K1612">
+        <v>3.71</v>
+      </c>
+      <c r="L1612">
+        <v>4.2</v>
+      </c>
+      <c r="M1612">
+        <v>3.77</v>
+      </c>
+      <c r="N1612">
+        <v>4.18</v>
+      </c>
+      <c r="O1612">
+        <v>1</v>
+      </c>
+      <c r="P1612" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:16">
+      <c r="A1613" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1613">
         <v>1.51246272365805</v>
       </c>
-      <c r="D1611" t="s">
+      <c r="D1613" t="s">
         <v>344</v>
       </c>
-      <c r="E1611">
+      <c r="E1613">
         <v>1.44899850894632</v>
       </c>
-      <c r="F1611">
+      <c r="F1613">
         <v>-1</v>
       </c>
-      <c r="G1611">
+      <c r="G1613">
         <v>0.00688753727634195</v>
       </c>
-      <c r="H1611">
+      <c r="H1613">
         <v>0.00691100149105368</v>
       </c>
-      <c r="I1611">
+      <c r="I1613">
         <v>0.06346421471173036</v>
       </c>
-      <c r="J1611">
+      <c r="J1613">
         <v>0.7244035785288275</v>
       </c>
-      <c r="K1611">
+      <c r="K1613">
         <v>3.71</v>
       </c>
-      <c r="L1611">
+      <c r="L1613">
         <v>4.2</v>
       </c>
-      <c r="M1611">
+      <c r="M1613">
         <v>3.77</v>
       </c>
-      <c r="N1611">
+      <c r="N1613">
         <v>4.18</v>
       </c>
-      <c r="O1611">
-        <v>1</v>
-      </c>
-      <c r="P1611" t="s">
-        <v>331</v>
+      <c r="O1613">
+        <v>1</v>
+      </c>
+      <c r="P1613" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:16">
+      <c r="A1614" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1614">
+        <v>1.789770414318325</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1614">
+        <v>1.730790960102448</v>
+      </c>
+      <c r="F1614">
+        <v>-1</v>
+      </c>
+      <c r="G1614">
+        <v>0.006610229585681676</v>
+      </c>
+      <c r="H1614">
+        <v>0.006629209039897552</v>
+      </c>
+      <c r="I1614">
+        <v>0.0589794542158768</v>
+      </c>
+      <c r="J1614">
+        <v>0.6496575702646026</v>
+      </c>
+      <c r="K1614">
+        <v>3.71</v>
+      </c>
+      <c r="L1614">
+        <v>4.2</v>
+      </c>
+      <c r="M1614">
+        <v>3.77</v>
+      </c>
+      <c r="N1614">
+        <v>4.18</v>
+      </c>
+      <c r="O1614">
+        <v>1</v>
+      </c>
+      <c r="P1614" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
